--- a/static/stockPageImg/waitingList/titles.xlsx
+++ b/static/stockPageImg/waitingList/titles.xlsx
@@ -11,126 +11,3072 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
-  <si>
-    <t>4+丢石头+隐藏(2.jpg</t>
-  </si>
-  <si>
-    <t>395.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(6.jpg</t>
-  </si>
-  <si>
-    <t>396.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(1.jpg</t>
-  </si>
-  <si>
-    <t>397.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(15.jpg</t>
-  </si>
-  <si>
-    <t>398.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(17.jpg</t>
-  </si>
-  <si>
-    <t>399.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(11.jpg</t>
-  </si>
-  <si>
-    <t>400.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(9.jpg</t>
-  </si>
-  <si>
-    <t>401.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(5.jpg</t>
-  </si>
-  <si>
-    <t>402.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(7.jpg</t>
-  </si>
-  <si>
-    <t>403.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(4.jpg</t>
-  </si>
-  <si>
-    <t>404.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(16.jpg</t>
-  </si>
-  <si>
-    <t>405.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(12.jpg</t>
-  </si>
-  <si>
-    <t>406.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(13.jpg</t>
-  </si>
-  <si>
-    <t>407.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(10.jpg</t>
-  </si>
-  <si>
-    <t>408.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(3.jpg</t>
-  </si>
-  <si>
-    <t>409.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(8.jpg</t>
-  </si>
-  <si>
-    <t>410.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(19.jpg</t>
-  </si>
-  <si>
-    <t>411.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(14.jpg</t>
-  </si>
-  <si>
-    <t>412.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(20.jpg</t>
-  </si>
-  <si>
-    <t>413.jpg</t>
-  </si>
-  <si>
-    <t>4+丢石头+隐藏(18.jpg</t>
-  </si>
-  <si>
-    <t>414.jpg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1022">
+  <si>
+    <t>4+抬石头+隐藏(26.jpg</t>
+  </si>
+  <si>
+    <t>778.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(16.jpg</t>
+  </si>
+  <si>
+    <t>779.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(6.jpg</t>
+  </si>
+  <si>
+    <t>780.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(19.jpg</t>
+  </si>
+  <si>
+    <t>781.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(14.jpg</t>
+  </si>
+  <si>
+    <t>782.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>783.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(11.jpg</t>
+  </si>
+  <si>
+    <t>784.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>785.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(42.jpg</t>
+  </si>
+  <si>
+    <t>786.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(14.jpg</t>
+  </si>
+  <si>
+    <t>787.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(44.jpg</t>
+  </si>
+  <si>
+    <t>788.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(10.jpg</t>
+  </si>
+  <si>
+    <t>789.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>790.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(14.jpg</t>
+  </si>
+  <si>
+    <t>791.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(43.jpg</t>
+  </si>
+  <si>
+    <t>792.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(15.jpg</t>
+  </si>
+  <si>
+    <t>793.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>794.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(6.jpg</t>
+  </si>
+  <si>
+    <t>795.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(29.jpg</t>
+  </si>
+  <si>
+    <t>796.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>797.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(9.jpg</t>
+  </si>
+  <si>
+    <t>798.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(36.jpg</t>
+  </si>
+  <si>
+    <t>799.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(10.jpg</t>
+  </si>
+  <si>
+    <t>800.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(13.jpg</t>
+  </si>
+  <si>
+    <t>801.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(24.jpg</t>
+  </si>
+  <si>
+    <t>802.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(11.jpg</t>
+  </si>
+  <si>
+    <t>803.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(15.jpg</t>
+  </si>
+  <si>
+    <t>804.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(6.jpg</t>
+  </si>
+  <si>
+    <t>805.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(6.jpg</t>
+  </si>
+  <si>
+    <t>806.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(20.jpg</t>
+  </si>
+  <si>
+    <t>807.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(35.jpg</t>
+  </si>
+  <si>
+    <t>808.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(45.jpg</t>
+  </si>
+  <si>
+    <t>809.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(15.jpg</t>
+  </si>
+  <si>
+    <t>810.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(12.jpg</t>
+  </si>
+  <si>
+    <t>811.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(17.jpg</t>
+  </si>
+  <si>
+    <t>812.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(32.jpg</t>
+  </si>
+  <si>
+    <t>813.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(28.jpg</t>
+  </si>
+  <si>
+    <t>814.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(18.jpg</t>
+  </si>
+  <si>
+    <t>815.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(21.jpg</t>
+  </si>
+  <si>
+    <t>816.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>817.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(8.jpg</t>
+  </si>
+  <si>
+    <t>818.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(27.jpg</t>
+  </si>
+  <si>
+    <t>819.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(23.jpg</t>
+  </si>
+  <si>
+    <t>820.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(17.jpg</t>
+  </si>
+  <si>
+    <t>821.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(8.jpg</t>
+  </si>
+  <si>
+    <t>822.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(13.jpg</t>
+  </si>
+  <si>
+    <t>823.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(12.jpg</t>
+  </si>
+  <si>
+    <t>824.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(17.jpg</t>
+  </si>
+  <si>
+    <t>825.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(8.jpg</t>
+  </si>
+  <si>
+    <t>826.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(39.jpg</t>
+  </si>
+  <si>
+    <t>827.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>828.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(27.jpg</t>
+  </si>
+  <si>
+    <t>829.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(15.jpg</t>
+  </si>
+  <si>
+    <t>830.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(25.jpg</t>
+  </si>
+  <si>
+    <t>831.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(37.jpg</t>
+  </si>
+  <si>
+    <t>832.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(20.jpg</t>
+  </si>
+  <si>
+    <t>833.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(13.jpg</t>
+  </si>
+  <si>
+    <t>834.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(40.jpg</t>
+  </si>
+  <si>
+    <t>835.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(9.jpg</t>
+  </si>
+  <si>
+    <t>836.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(41.jpg</t>
+  </si>
+  <si>
+    <t>837.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(17.jpg</t>
+  </si>
+  <si>
+    <t>838.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>839.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(12.jpg</t>
+  </si>
+  <si>
+    <t>840.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(36.jpg</t>
+  </si>
+  <si>
+    <t>841.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(8.jpg</t>
+  </si>
+  <si>
+    <t>842.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>843.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(11.jpg</t>
+  </si>
+  <si>
+    <t>844.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>845.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>846.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>847.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(7.jpg</t>
+  </si>
+  <si>
+    <t>848.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(8.jpg</t>
+  </si>
+  <si>
+    <t>849.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(23.jpg</t>
+  </si>
+  <si>
+    <t>850.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(47.jpg</t>
+  </si>
+  <si>
+    <t>851.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(16.jpg</t>
+  </si>
+  <si>
+    <t>852.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(16.jpg</t>
+  </si>
+  <si>
+    <t>853.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(46.jpg</t>
+  </si>
+  <si>
+    <t>854.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(15.jpg</t>
+  </si>
+  <si>
+    <t>855.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>856.jpg</t>
+  </si>
+  <si>
+    <t>4+顺序击打+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>857.jpg</t>
+  </si>
+  <si>
+    <t>4+顺序击打+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>858.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(22.jpg</t>
+  </si>
+  <si>
+    <t>859.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>860.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(26.jpg</t>
+  </si>
+  <si>
+    <t>861.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(19.jpg</t>
+  </si>
+  <si>
+    <t>862.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>863.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(18.jpg</t>
+  </si>
+  <si>
+    <t>864.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(10.jpg</t>
+  </si>
+  <si>
+    <t>865.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(13.jpg</t>
+  </si>
+  <si>
+    <t>866.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(73.jpg</t>
+  </si>
+  <si>
+    <t>867.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(32.jpg</t>
+  </si>
+  <si>
+    <t>868.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(19.jpg</t>
+  </si>
+  <si>
+    <t>869.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(25.jpg</t>
+  </si>
+  <si>
+    <t>870.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(12.jpg</t>
+  </si>
+  <si>
+    <t>871.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(31.jpg</t>
+  </si>
+  <si>
+    <t>872.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(6.jpg</t>
+  </si>
+  <si>
+    <t>873.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(38.jpg</t>
+  </si>
+  <si>
+    <t>874.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(11.jpg</t>
+  </si>
+  <si>
+    <t>875.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(13.jpg</t>
+  </si>
+  <si>
+    <t>876.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(20.jpg</t>
+  </si>
+  <si>
+    <t>877.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(7.jpg</t>
+  </si>
+  <si>
+    <t>878.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>879.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(9.jpg</t>
+  </si>
+  <si>
+    <t>880.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(24.jpg</t>
+  </si>
+  <si>
+    <t>881.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(10.jpg</t>
+  </si>
+  <si>
+    <t>882.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(9.jpg</t>
+  </si>
+  <si>
+    <t>883.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(20.jpg</t>
+  </si>
+  <si>
+    <t>884.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(25.jpg</t>
+  </si>
+  <si>
+    <t>885.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(28.jpg</t>
+  </si>
+  <si>
+    <t>886.jpg</t>
+  </si>
+  <si>
+    <t>4+顺序击打+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>887.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(14.jpg</t>
+  </si>
+  <si>
+    <t>888.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(13.jpg</t>
+  </si>
+  <si>
+    <t>889.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(19.jpg</t>
+  </si>
+  <si>
+    <t>890.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(6.jpg</t>
+  </si>
+  <si>
+    <t>891.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(11.jpg</t>
+  </si>
+  <si>
+    <t>892.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(11.jpg</t>
+  </si>
+  <si>
+    <t>893.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(23.jpg</t>
+  </si>
+  <si>
+    <t>894.jpg</t>
+  </si>
+  <si>
+    <t>4+顺序击打+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>895.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(26.jpg</t>
+  </si>
+  <si>
+    <t>896.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(24.jpg</t>
+  </si>
+  <si>
+    <t>897.jpg</t>
+  </si>
+  <si>
+    <t>4+顺序击打+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>898.jpg</t>
+  </si>
+  <si>
+    <t>4+顺序击打+隐藏(9.jpg</t>
+  </si>
+  <si>
+    <t>899.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>900.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>901.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(7.jpg</t>
+  </si>
+  <si>
+    <t>902.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(7.jpg</t>
+  </si>
+  <si>
+    <t>903.jpg</t>
+  </si>
+  <si>
+    <t>4+顺序击打+隐藏(7.jpg</t>
+  </si>
+  <si>
+    <t>904.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(18.jpg</t>
+  </si>
+  <si>
+    <t>905.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(18.jpg</t>
+  </si>
+  <si>
+    <t>906.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(21.jpg</t>
+  </si>
+  <si>
+    <t>907.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(25.jpg</t>
+  </si>
+  <si>
+    <t>908.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(34.jpg</t>
+  </si>
+  <si>
+    <t>909.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(18.jpg</t>
+  </si>
+  <si>
+    <t>910.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(29.jpg</t>
+  </si>
+  <si>
+    <t>911.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>912.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(12.jpg</t>
+  </si>
+  <si>
+    <t>913.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(10.jpg</t>
+  </si>
+  <si>
+    <t>914.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(21.jpg</t>
+  </si>
+  <si>
+    <t>915.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(33.jpg</t>
+  </si>
+  <si>
+    <t>916.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>917.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>918.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(34.jpg</t>
+  </si>
+  <si>
+    <t>919.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(22.jpg</t>
+  </si>
+  <si>
+    <t>920.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(26.jpg</t>
+  </si>
+  <si>
+    <t>921.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(9.jpg</t>
+  </si>
+  <si>
+    <t>922.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(10.jpg</t>
+  </si>
+  <si>
+    <t>923.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(16.jpg</t>
+  </si>
+  <si>
+    <t>924.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(17.jpg</t>
+  </si>
+  <si>
+    <t>925.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>926.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(38.jpg</t>
+  </si>
+  <si>
+    <t>927.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(33.jpg</t>
+  </si>
+  <si>
+    <t>928.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(39.jpg</t>
+  </si>
+  <si>
+    <t>929.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(16.jpg</t>
+  </si>
+  <si>
+    <t>930.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(12.jpg</t>
+  </si>
+  <si>
+    <t>931.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(14.jpg</t>
+  </si>
+  <si>
+    <t>932.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(31.jpg</t>
+  </si>
+  <si>
+    <t>933.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>934.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(7.jpg</t>
+  </si>
+  <si>
+    <t>935.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(15.jpg</t>
+  </si>
+  <si>
+    <t>936.jpg</t>
+  </si>
+  <si>
+    <t>4+对称树+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>937.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(28.jpg</t>
+  </si>
+  <si>
+    <t>938.jpg</t>
+  </si>
+  <si>
+    <t>4+顺序击打+隐藏(6.jpg</t>
+  </si>
+  <si>
+    <t>939.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(30.jpg</t>
+  </si>
+  <si>
+    <t>940.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(30.jpg</t>
+  </si>
+  <si>
+    <t>941.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>942.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(16.jpg</t>
+  </si>
+  <si>
+    <t>943.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(8.jpg</t>
+  </si>
+  <si>
+    <t>944.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(40.jpg</t>
+  </si>
+  <si>
+    <t>945.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>946.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(19.jpg</t>
+  </si>
+  <si>
+    <t>947.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(22.jpg</t>
+  </si>
+  <si>
+    <t>948.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(14.jpg</t>
+  </si>
+  <si>
+    <t>949.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(66.jpg</t>
+  </si>
+  <si>
+    <t>950.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(32.jpg</t>
+  </si>
+  <si>
+    <t>951.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(22.jpg</t>
+  </si>
+  <si>
+    <t>952.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(35.jpg</t>
+  </si>
+  <si>
+    <t>953.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(29.jpg</t>
+  </si>
+  <si>
+    <t>954.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(12.jpg</t>
+  </si>
+  <si>
+    <t>955.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(70.jpg</t>
+  </si>
+  <si>
+    <t>956.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(9.jpg</t>
+  </si>
+  <si>
+    <t>957.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(30.jpg</t>
+  </si>
+  <si>
+    <t>958.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(29.jpg</t>
+  </si>
+  <si>
+    <t>959.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(33.jpg</t>
+  </si>
+  <si>
+    <t>960.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>961.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(37.jpg</t>
+  </si>
+  <si>
+    <t>962.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(56.jpg</t>
+  </si>
+  <si>
+    <t>963.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(47.jpg</t>
+  </si>
+  <si>
+    <t>964.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(7.jpg</t>
+  </si>
+  <si>
+    <t>965.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(41.jpg</t>
+  </si>
+  <si>
+    <t>966.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>967.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(35.jpg</t>
+  </si>
+  <si>
+    <t>968.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(48.jpg</t>
+  </si>
+  <si>
+    <t>969.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(59.jpg</t>
+  </si>
+  <si>
+    <t>970.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(27.jpg</t>
+  </si>
+  <si>
+    <t>971.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(54.jpg</t>
+  </si>
+  <si>
+    <t>972.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(33.jpg</t>
+  </si>
+  <si>
+    <t>973.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(65.jpg</t>
+  </si>
+  <si>
+    <t>974.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(82.jpg</t>
+  </si>
+  <si>
+    <t>975.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(34.jpg</t>
+  </si>
+  <si>
+    <t>976.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(17.jpg</t>
+  </si>
+  <si>
+    <t>977.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(63.jpg</t>
+  </si>
+  <si>
+    <t>978.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(13.jpg</t>
+  </si>
+  <si>
+    <t>979.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(6.jpg</t>
+  </si>
+  <si>
+    <t>980.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(36.jpg</t>
+  </si>
+  <si>
+    <t>981.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(46.jpg</t>
+  </si>
+  <si>
+    <t>982.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(11.jpg</t>
+  </si>
+  <si>
+    <t>983.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(10.jpg</t>
+  </si>
+  <si>
+    <t>984.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(34.jpg</t>
+  </si>
+  <si>
+    <t>985.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(9.jpg</t>
+  </si>
+  <si>
+    <t>986.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(35.jpg</t>
+  </si>
+  <si>
+    <t>987.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(23.jpg</t>
+  </si>
+  <si>
+    <t>988.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(75.jpg</t>
+  </si>
+  <si>
+    <t>989.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(20.jpg</t>
+  </si>
+  <si>
+    <t>990.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(81.jpg</t>
+  </si>
+  <si>
+    <t>991.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(78.jpg</t>
+  </si>
+  <si>
+    <t>992.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(50.jpg</t>
+  </si>
+  <si>
+    <t>993.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(18.jpg</t>
+  </si>
+  <si>
+    <t>994.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(28.jpg</t>
+  </si>
+  <si>
+    <t>995.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>996.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(80.jpg</t>
+  </si>
+  <si>
+    <t>997.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(61.jpg</t>
+  </si>
+  <si>
+    <t>998.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(37.jpg</t>
+  </si>
+  <si>
+    <t>999.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(44.jpg</t>
+  </si>
+  <si>
+    <t>1000.jpg</t>
+  </si>
+  <si>
+    <t>4+水上圈+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>1001.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(62.jpg</t>
+  </si>
+  <si>
+    <t>1002.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(53.jpg</t>
+  </si>
+  <si>
+    <t>1003.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(67.jpg</t>
+  </si>
+  <si>
+    <t>1004.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(31.jpg</t>
+  </si>
+  <si>
+    <t>1005.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(57.jpg</t>
+  </si>
+  <si>
+    <t>1006.jpg</t>
+  </si>
+  <si>
+    <t>4+花朵+隐藏(30.jpg</t>
+  </si>
+  <si>
+    <t>1007.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(14.jpg</t>
+  </si>
+  <si>
+    <t>1008.jpg</t>
+  </si>
+  <si>
+    <t>4+融化+隐藏(7.jpg</t>
+  </si>
+  <si>
+    <t>1009.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>1010.jpg</t>
+  </si>
+  <si>
+    <t>4+落叶堆+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>1011.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(27.jpg</t>
+  </si>
+  <si>
+    <t>1012.jpg</t>
+  </si>
+  <si>
+    <t>4+顺序击打+隐藏(10.jpg</t>
+  </si>
+  <si>
+    <t>1013.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>1014.jpg</t>
+  </si>
+  <si>
+    <t>4+顺序击打+隐藏(8.jpg</t>
+  </si>
+  <si>
+    <t>1015.jpg</t>
+  </si>
+  <si>
+    <t>4+顺序击打+隐藏(11.jpg</t>
+  </si>
+  <si>
+    <t>1016.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(21.jpg</t>
+  </si>
+  <si>
+    <t>1017.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(32.jpg</t>
+  </si>
+  <si>
+    <t>1018.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>1019.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(68.jpg</t>
+  </si>
+  <si>
+    <t>1020.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(71.jpg</t>
+  </si>
+  <si>
+    <t>1021.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(84.jpg</t>
+  </si>
+  <si>
+    <t>1022.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(114.jpg</t>
+  </si>
+  <si>
+    <t>1023.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(112.jpg</t>
+  </si>
+  <si>
+    <t>1024.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(91.jpg</t>
+  </si>
+  <si>
+    <t>1025.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(129.jpg</t>
+  </si>
+  <si>
+    <t>1026.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(77.jpg</t>
+  </si>
+  <si>
+    <t>1027.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(109.jpg</t>
+  </si>
+  <si>
+    <t>1028.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(100.jpg</t>
+  </si>
+  <si>
+    <t>1029.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(104.jpg</t>
+  </si>
+  <si>
+    <t>1030.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(51.jpg</t>
+  </si>
+  <si>
+    <t>1031.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(15.jpg</t>
+  </si>
+  <si>
+    <t>1032.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(45.jpg</t>
+  </si>
+  <si>
+    <t>1033.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(99.jpg</t>
+  </si>
+  <si>
+    <t>1034.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(97.jpg</t>
+  </si>
+  <si>
+    <t>1035.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(117.jpg</t>
+  </si>
+  <si>
+    <t>1036.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(76.jpg</t>
+  </si>
+  <si>
+    <t>1037.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(69.jpg</t>
+  </si>
+  <si>
+    <t>1038.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(110.jpg</t>
+  </si>
+  <si>
+    <t>1039.jpg</t>
+  </si>
+  <si>
+    <t>4+碎石堆+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>1040.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(55.jpg</t>
+  </si>
+  <si>
+    <t>1041.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(95.jpg</t>
+  </si>
+  <si>
+    <t>1042.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(52.jpg</t>
+  </si>
+  <si>
+    <t>1043.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(103.jpg</t>
+  </si>
+  <si>
+    <t>1044.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(106.jpg</t>
+  </si>
+  <si>
+    <t>1045.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(96.jpg</t>
+  </si>
+  <si>
+    <t>1046.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(64.jpg</t>
+  </si>
+  <si>
+    <t>1047.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(88.jpg</t>
+  </si>
+  <si>
+    <t>1048.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(101.jpg</t>
+  </si>
+  <si>
+    <t>1049.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(92.jpg</t>
+  </si>
+  <si>
+    <t>1050.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(116.jpg</t>
+  </si>
+  <si>
+    <t>1051.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(40.jpg</t>
+  </si>
+  <si>
+    <t>1052.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(135.jpg</t>
+  </si>
+  <si>
+    <t>1053.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(113.jpg</t>
+  </si>
+  <si>
+    <t>1054.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(144.jpg</t>
+  </si>
+  <si>
+    <t>1055.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(83.jpg</t>
+  </si>
+  <si>
+    <t>1056.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(85.jpg</t>
+  </si>
+  <si>
+    <t>1057.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(39.jpg</t>
+  </si>
+  <si>
+    <t>1058.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(58.jpg</t>
+  </si>
+  <si>
+    <t>1059.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(60.jpg</t>
+  </si>
+  <si>
+    <t>1060.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(120.jpg</t>
+  </si>
+  <si>
+    <t>1061.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(31.jpg</t>
+  </si>
+  <si>
+    <t>1062.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(111.jpg</t>
+  </si>
+  <si>
+    <t>1063.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(118.jpg</t>
+  </si>
+  <si>
+    <t>1064.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(87.jpg</t>
+  </si>
+  <si>
+    <t>1065.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(98.jpg</t>
+  </si>
+  <si>
+    <t>1066.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(165.jpg</t>
+  </si>
+  <si>
+    <t>1067.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(38.jpg</t>
+  </si>
+  <si>
+    <t>1068.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(122.jpg</t>
+  </si>
+  <si>
+    <t>1069.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(86.jpg</t>
+  </si>
+  <si>
+    <t>1070.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(153.jpg</t>
+  </si>
+  <si>
+    <t>1071.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(43.jpg</t>
+  </si>
+  <si>
+    <t>1072.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(173.jpg</t>
+  </si>
+  <si>
+    <t>1073.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(141.jpg</t>
+  </si>
+  <si>
+    <t>1074.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(147.jpg</t>
+  </si>
+  <si>
+    <t>1075.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(143.jpg</t>
+  </si>
+  <si>
+    <t>1076.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(136.jpg</t>
+  </si>
+  <si>
+    <t>1077.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(151.jpg</t>
+  </si>
+  <si>
+    <t>1078.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(105.jpg</t>
+  </si>
+  <si>
+    <t>1079.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(74.jpg</t>
+  </si>
+  <si>
+    <t>1080.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(108.jpg</t>
+  </si>
+  <si>
+    <t>1081.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(139.jpg</t>
+  </si>
+  <si>
+    <t>1082.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(125.jpg</t>
+  </si>
+  <si>
+    <t>1083.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(137.jpg</t>
+  </si>
+  <si>
+    <t>1084.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(49.jpg</t>
+  </si>
+  <si>
+    <t>1085.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(102.jpg</t>
+  </si>
+  <si>
+    <t>1086.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(123.jpg</t>
+  </si>
+  <si>
+    <t>1087.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(107.jpg</t>
+  </si>
+  <si>
+    <t>1088.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(152.jpg</t>
+  </si>
+  <si>
+    <t>1089.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(146.jpg</t>
+  </si>
+  <si>
+    <t>1090.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(128.jpg</t>
+  </si>
+  <si>
+    <t>1091.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(158.jpg</t>
+  </si>
+  <si>
+    <t>1092.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(93.jpg</t>
+  </si>
+  <si>
+    <t>1093.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(156.jpg</t>
+  </si>
+  <si>
+    <t>1094.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(134.jpg</t>
+  </si>
+  <si>
+    <t>1095.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(169.jpg</t>
+  </si>
+  <si>
+    <t>1096.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(8.jpg</t>
+  </si>
+  <si>
+    <t>1097.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(159.jpg</t>
+  </si>
+  <si>
+    <t>1098.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(119.jpg</t>
+  </si>
+  <si>
+    <t>1099.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(163.jpg</t>
+  </si>
+  <si>
+    <t>1100.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(42.jpg</t>
+  </si>
+  <si>
+    <t>1101.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(72.jpg</t>
+  </si>
+  <si>
+    <t>1102.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(94.jpg</t>
+  </si>
+  <si>
+    <t>1103.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(148.jpg</t>
+  </si>
+  <si>
+    <t>1104.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(133.jpg</t>
+  </si>
+  <si>
+    <t>1105.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(24.jpg</t>
+  </si>
+  <si>
+    <t>1106.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(90.jpg</t>
+  </si>
+  <si>
+    <t>1107.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(131.jpg</t>
+  </si>
+  <si>
+    <t>1108.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(89.jpg</t>
+  </si>
+  <si>
+    <t>1109.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(167.jpg</t>
+  </si>
+  <si>
+    <t>1110.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(166.jpg</t>
+  </si>
+  <si>
+    <t>1111.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(160.jpg</t>
+  </si>
+  <si>
+    <t>1112.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(142.jpg</t>
+  </si>
+  <si>
+    <t>1113.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(154.jpg</t>
+  </si>
+  <si>
+    <t>1114.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(174.jpg</t>
+  </si>
+  <si>
+    <t>1115.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(149.jpg</t>
+  </si>
+  <si>
+    <t>1116.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(176.jpg</t>
+  </si>
+  <si>
+    <t>1117.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(124.jpg</t>
+  </si>
+  <si>
+    <t>1118.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(171.jpg</t>
+  </si>
+  <si>
+    <t>1119.jpg</t>
+  </si>
+  <si>
+    <t>4+特殊+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>1120.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(140.jpg</t>
+  </si>
+  <si>
+    <t>1121.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(138.jpg</t>
+  </si>
+  <si>
+    <t>1122.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(164.jpg</t>
+  </si>
+  <si>
+    <t>1123.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(132.jpg</t>
+  </si>
+  <si>
+    <t>1124.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(162.jpg</t>
+  </si>
+  <si>
+    <t>1125.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(161.jpg</t>
+  </si>
+  <si>
+    <t>1126.jpg</t>
+  </si>
+  <si>
+    <t>4+特殊+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>1127.jpg</t>
+  </si>
+  <si>
+    <t>4+特殊+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>1128.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(26.jpg</t>
+  </si>
+  <si>
+    <t>1129.jpg</t>
+  </si>
+  <si>
+    <t>4+特殊+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>1130.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(175.jpg</t>
+  </si>
+  <si>
+    <t>1131.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(177.jpg</t>
+  </si>
+  <si>
+    <t>1132.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(8.jpg</t>
+  </si>
+  <si>
+    <t>1133.jpg</t>
+  </si>
+  <si>
+    <t>4+特殊+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>1134.jpg</t>
+  </si>
+  <si>
+    <t>4+跳栅栏+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>1135.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(34.jpg</t>
+  </si>
+  <si>
+    <t>1136.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(9.jpg</t>
+  </si>
+  <si>
+    <t>1137.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(16.jpg</t>
+  </si>
+  <si>
+    <t>1138.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(11.jpg</t>
+  </si>
+  <si>
+    <t>1139.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(12.jpg</t>
+  </si>
+  <si>
+    <t>1140.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(36.jpg</t>
+  </si>
+  <si>
+    <t>1141.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>1142.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(28.jpg</t>
+  </si>
+  <si>
+    <t>1143.jpg</t>
+  </si>
+  <si>
+    <t>4+特殊+隐藏(6.jpg</t>
+  </si>
+  <si>
+    <t>1144.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(51.jpg</t>
+  </si>
+  <si>
+    <t>1145.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(21.jpg</t>
+  </si>
+  <si>
+    <t>1146.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(127.jpg</t>
+  </si>
+  <si>
+    <t>1147.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(32.jpg</t>
+  </si>
+  <si>
+    <t>1148.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(10.jpg</t>
+  </si>
+  <si>
+    <t>1149.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(33.jpg</t>
+  </si>
+  <si>
+    <t>1150.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(64.jpg</t>
+  </si>
+  <si>
+    <t>1151.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(35.jpg</t>
+  </si>
+  <si>
+    <t>1152.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(172.jpg</t>
+  </si>
+  <si>
+    <t>1153.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(157.jpg</t>
+  </si>
+  <si>
+    <t>1154.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(38.jpg</t>
+  </si>
+  <si>
+    <t>1155.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(44.jpg</t>
+  </si>
+  <si>
+    <t>1156.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(23.jpg</t>
+  </si>
+  <si>
+    <t>1157.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(17.jpg</t>
+  </si>
+  <si>
+    <t>1158.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>1159.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(61.jpg</t>
+  </si>
+  <si>
+    <t>1160.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(20.jpg</t>
+  </si>
+  <si>
+    <t>1161.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(48.jpg</t>
+  </si>
+  <si>
+    <t>1162.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(14.jpg</t>
+  </si>
+  <si>
+    <t>1163.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(53.jpg</t>
+  </si>
+  <si>
+    <t>1164.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>1165.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(47.jpg</t>
+  </si>
+  <si>
+    <t>1166.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(13.jpg</t>
+  </si>
+  <si>
+    <t>1167.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(57.jpg</t>
+  </si>
+  <si>
+    <t>1168.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(56.jpg</t>
+  </si>
+  <si>
+    <t>1169.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(17.jpg</t>
+  </si>
+  <si>
+    <t>1170.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(27.jpg</t>
+  </si>
+  <si>
+    <t>1171.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(6.jpg</t>
+  </si>
+  <si>
+    <t>1172.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>1173.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(168.jpg</t>
+  </si>
+  <si>
+    <t>1174.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(60.jpg</t>
+  </si>
+  <si>
+    <t>1175.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(46.jpg</t>
+  </si>
+  <si>
+    <t>1176.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(24.jpg</t>
+  </si>
+  <si>
+    <t>1177.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(39.jpg</t>
+  </si>
+  <si>
+    <t>1178.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(55.jpg</t>
+  </si>
+  <si>
+    <t>1179.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>1180.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(79.jpg</t>
+  </si>
+  <si>
+    <t>1181.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>1182.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(170.jpg</t>
+  </si>
+  <si>
+    <t>1183.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(59.jpg</t>
+  </si>
+  <si>
+    <t>1184.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>1185.jpg</t>
+  </si>
+  <si>
+    <t>4+铁门+隐藏(7.jpg</t>
+  </si>
+  <si>
+    <t>1186.jpg</t>
+  </si>
+  <si>
+    <t>4+铁门+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>1187.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(62.jpg</t>
+  </si>
+  <si>
+    <t>1188.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(7.jpg</t>
+  </si>
+  <si>
+    <t>1189.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(14.jpg</t>
+  </si>
+  <si>
+    <t>1190.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(22.jpg</t>
+  </si>
+  <si>
+    <t>1191.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(27.jpg</t>
+  </si>
+  <si>
+    <t>1192.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(11.jpg</t>
+  </si>
+  <si>
+    <t>1193.jpg</t>
+  </si>
+  <si>
+    <t>4+仙人掌+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>1194.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(65.jpg</t>
+  </si>
+  <si>
+    <t>1195.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>1196.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(11.jpg</t>
+  </si>
+  <si>
+    <t>1197.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>1198.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(67.jpg</t>
+  </si>
+  <si>
+    <t>1199.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(6.jpg</t>
+  </si>
+  <si>
+    <t>1200.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(45.jpg</t>
+  </si>
+  <si>
+    <t>1201.jpg</t>
+  </si>
+  <si>
+    <t>4+铁门+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>1202.jpg</t>
+  </si>
+  <si>
+    <t>4+铁门+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>1203.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(13.jpg</t>
+  </si>
+  <si>
+    <t>1204.jpg</t>
+  </si>
+  <si>
+    <t>4+铁门+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>1205.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(18.jpg</t>
+  </si>
+  <si>
+    <t>1206.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(8.jpg</t>
+  </si>
+  <si>
+    <t>1207.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(14.jpg</t>
+  </si>
+  <si>
+    <t>1208.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(15.jpg</t>
+  </si>
+  <si>
+    <t>1209.jpg</t>
+  </si>
+  <si>
+    <t>4+仙人掌+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>1210.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(15.jpg</t>
+  </si>
+  <si>
+    <t>1211.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(41.jpg</t>
+  </si>
+  <si>
+    <t>1212.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(18.jpg</t>
+  </si>
+  <si>
+    <t>1213.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(50.jpg</t>
+  </si>
+  <si>
+    <t>1214.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(52.jpg</t>
+  </si>
+  <si>
+    <t>1215.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(30.jpg</t>
+  </si>
+  <si>
+    <t>1216.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(66.jpg</t>
+  </si>
+  <si>
+    <t>1217.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(9.jpg</t>
+  </si>
+  <si>
+    <t>1218.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(12.jpg</t>
+  </si>
+  <si>
+    <t>1219.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(25.jpg</t>
+  </si>
+  <si>
+    <t>1220.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(54.jpg</t>
+  </si>
+  <si>
+    <t>1221.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(23.jpg</t>
+  </si>
+  <si>
+    <t>1222.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(15.jpg</t>
+  </si>
+  <si>
+    <t>1223.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(7.jpg</t>
+  </si>
+  <si>
+    <t>1224.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(16.jpg</t>
+  </si>
+  <si>
+    <t>1225.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(33.jpg</t>
+  </si>
+  <si>
+    <t>1226.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(8.jpg</t>
+  </si>
+  <si>
+    <t>1227.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>1228.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(12.jpg</t>
+  </si>
+  <si>
+    <t>1229.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(37.jpg</t>
+  </si>
+  <si>
+    <t>1230.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(42.jpg</t>
+  </si>
+  <si>
+    <t>1231.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(9.jpg</t>
+  </si>
+  <si>
+    <t>1232.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(13.jpg</t>
+  </si>
+  <si>
+    <t>1233.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>1234.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(21.jpg</t>
+  </si>
+  <si>
+    <t>1235.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(63.jpg</t>
+  </si>
+  <si>
+    <t>1236.jpg</t>
+  </si>
+  <si>
+    <t>4+仙人掌+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>1237.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(31.jpg</t>
+  </si>
+  <si>
+    <t>1238.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(29.jpg</t>
+  </si>
+  <si>
+    <t>1239.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(19.jpg</t>
+  </si>
+  <si>
+    <t>1240.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>1241.jpg</t>
+  </si>
+  <si>
+    <t>4+铁门+隐藏(8.jpg</t>
+  </si>
+  <si>
+    <t>1242.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(6.jpg</t>
+  </si>
+  <si>
+    <t>1243.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(17.jpg</t>
+  </si>
+  <si>
+    <t>1244.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(43.jpg</t>
+  </si>
+  <si>
+    <t>1245.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(1.jpg</t>
+  </si>
+  <si>
+    <t>1246.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(29.jpg</t>
+  </si>
+  <si>
+    <t>1247.jpg</t>
+  </si>
+  <si>
+    <t>4+仙人掌+隐藏(4.jpg</t>
+  </si>
+  <si>
+    <t>1248.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(49.jpg</t>
+  </si>
+  <si>
+    <t>1249.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(36.jpg</t>
+  </si>
+  <si>
+    <t>1250.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(5.jpg</t>
+  </si>
+  <si>
+    <t>1251.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(19.jpg</t>
+  </si>
+  <si>
+    <t>1252.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(10.jpg</t>
+  </si>
+  <si>
+    <t>1253.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(26.jpg</t>
+  </si>
+  <si>
+    <t>1254.jpg</t>
+  </si>
+  <si>
+    <t>4+铁门+隐藏(6.jpg</t>
+  </si>
+  <si>
+    <t>1255.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(150.jpg</t>
+  </si>
+  <si>
+    <t>1256.jpg</t>
+  </si>
+  <si>
+    <t>4+仙人掌+隐藏(2.jpg</t>
+  </si>
+  <si>
+    <t>1257.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(25.jpg</t>
+  </si>
+  <si>
+    <t>1258.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(37.jpg</t>
+  </si>
+  <si>
+    <t>1259.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(126.jpg</t>
+  </si>
+  <si>
+    <t>1260.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(40.jpg</t>
+  </si>
+  <si>
+    <t>1261.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(41.jpg</t>
+  </si>
+  <si>
+    <t>1262.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(39.jpg</t>
+  </si>
+  <si>
+    <t>1263.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(130.jpg</t>
+  </si>
+  <si>
+    <t>1264.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(20.jpg</t>
+  </si>
+  <si>
+    <t>1265.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(155.jpg</t>
+  </si>
+  <si>
+    <t>1266.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(42.jpg</t>
+  </si>
+  <si>
+    <t>1267.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(32.jpg</t>
+  </si>
+  <si>
+    <t>1268.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(30.jpg</t>
+  </si>
+  <si>
+    <t>1269.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(22.jpg</t>
+  </si>
+  <si>
+    <t>1270.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(31.jpg</t>
+  </si>
+  <si>
+    <t>1271.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(145.jpg</t>
+  </si>
+  <si>
+    <t>1272.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>1273.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(10.jpg</t>
+  </si>
+  <si>
+    <t>1274.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(16.jpg</t>
+  </si>
+  <si>
+    <t>1275.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(121.jpg</t>
+  </si>
+  <si>
+    <t>1276.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(35.jpg</t>
+  </si>
+  <si>
+    <t>1277.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(44.jpg</t>
+  </si>
+  <si>
+    <t>1278.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(38.jpg</t>
+  </si>
+  <si>
+    <t>1279.jpg</t>
+  </si>
+  <si>
+    <t>4+抬石头+隐藏(115.jpg</t>
+  </si>
+  <si>
+    <t>1280.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(40.jpg</t>
+  </si>
+  <si>
+    <t>1281.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(24.jpg</t>
+  </si>
+  <si>
+    <t>1282.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(34.jpg</t>
+  </si>
+  <si>
+    <t>1283.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(43.jpg</t>
+  </si>
+  <si>
+    <t>1284.jpg</t>
+  </si>
+  <si>
+    <t>4+铁门+隐藏(3.jpg</t>
+  </si>
+  <si>
+    <t>1285.jpg</t>
+  </si>
+  <si>
+    <t>4+铁链球+隐藏(7.jpg</t>
+  </si>
+  <si>
+    <t>1286.jpg</t>
+  </si>
+  <si>
+    <t>4+橡果+隐藏(28.jpg</t>
+  </si>
+  <si>
+    <t>1287.jpg</t>
+  </si>
+  <si>
+    <t>4+铁方块+隐藏(58.jpg</t>
+  </si>
+  <si>
+    <t>1288.jpg</t>
   </si>
 </sst>
 </file>
@@ -158,30 +3104,24 @@
     </font>
     <font>
       <sz val="16"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="16"/>
-      <color indexed="8"/>
+      <color indexed="10"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -191,11 +3131,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -203,17 +3143,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top/>
@@ -223,7 +3163,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top/>
       <bottom/>
@@ -231,53 +3171,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -287,7 +3197,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -300,22 +3210,16 @@
     <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -335,10 +3239,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1400,7 +4302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B512"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1571,1320 +4473,3940 @@
       </c>
     </row>
     <row r="21" ht="40.25" customHeight="1">
-      <c r="A21" t="s" s="6">
+      <c r="A21" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" t="s" s="5">
         <v>39</v>
       </c>
     </row>
     <row r="22" ht="40.25" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
+      <c r="A22" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s" s="5">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" ht="40.25" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
+      <c r="A23" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s" s="5">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" ht="40.25" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
+      <c r="A24" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s" s="5">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" ht="40.25" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
+      <c r="A25" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s" s="5">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" ht="40.25" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
+      <c r="A26" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s" s="5">
+        <v>49</v>
+      </c>
     </row>
     <row r="27" ht="40.25" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
+      <c r="A27" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s" s="5">
+        <v>51</v>
+      </c>
     </row>
     <row r="28" ht="40.25" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
+      <c r="A28" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s" s="5">
+        <v>53</v>
+      </c>
     </row>
     <row r="29" ht="40.25" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
+      <c r="A29" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s" s="5">
+        <v>55</v>
+      </c>
     </row>
     <row r="30" ht="40.25" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
+      <c r="A30" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s" s="5">
+        <v>57</v>
+      </c>
     </row>
     <row r="31" ht="40.25" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
+      <c r="A31" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s" s="5">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" ht="40.25" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s" s="5">
+        <v>61</v>
+      </c>
     </row>
     <row r="33" ht="40.25" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
+      <c r="A33" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s" s="5">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" ht="40.25" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
+      <c r="A34" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s" s="5">
+        <v>65</v>
+      </c>
     </row>
     <row r="35" ht="40.25" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
+      <c r="A35" t="s" s="4">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s" s="5">
+        <v>67</v>
+      </c>
     </row>
     <row r="36" ht="40.25" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
+      <c r="A36" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s" s="5">
+        <v>69</v>
+      </c>
     </row>
     <row r="37" ht="40.25" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
+      <c r="A37" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s" s="5">
+        <v>71</v>
+      </c>
     </row>
     <row r="38" ht="40.25" customHeight="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
+      <c r="A38" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s" s="5">
+        <v>73</v>
+      </c>
     </row>
     <row r="39" ht="40.25" customHeight="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
+      <c r="A39" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s" s="5">
+        <v>75</v>
+      </c>
     </row>
     <row r="40" ht="40.25" customHeight="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
+      <c r="A40" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s" s="5">
+        <v>77</v>
+      </c>
     </row>
     <row r="41" ht="40.25" customHeight="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
+      <c r="A41" t="s" s="4">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s" s="5">
+        <v>79</v>
+      </c>
     </row>
     <row r="42" ht="40.25" customHeight="1">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
+      <c r="A42" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s" s="5">
+        <v>81</v>
+      </c>
     </row>
     <row r="43" ht="40.25" customHeight="1">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
+      <c r="A43" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s" s="5">
+        <v>83</v>
+      </c>
     </row>
     <row r="44" ht="40.25" customHeight="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
+      <c r="A44" t="s" s="4">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s" s="5">
+        <v>85</v>
+      </c>
     </row>
     <row r="45" ht="40.25" customHeight="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
+      <c r="A45" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s" s="5">
+        <v>87</v>
+      </c>
     </row>
     <row r="46" ht="40.25" customHeight="1">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
+      <c r="A46" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s" s="5">
+        <v>89</v>
+      </c>
     </row>
     <row r="47" ht="40.25" customHeight="1">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
+      <c r="A47" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s" s="5">
+        <v>91</v>
+      </c>
     </row>
     <row r="48" ht="40.25" customHeight="1">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
+      <c r="A48" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s" s="5">
+        <v>93</v>
+      </c>
     </row>
     <row r="49" ht="40.25" customHeight="1">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
+      <c r="A49" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s" s="5">
+        <v>95</v>
+      </c>
     </row>
     <row r="50" ht="40.25" customHeight="1">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
+      <c r="A50" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s" s="5">
+        <v>97</v>
+      </c>
     </row>
     <row r="51" ht="40.25" customHeight="1">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
+      <c r="A51" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s" s="5">
+        <v>99</v>
+      </c>
     </row>
     <row r="52" ht="40.25" customHeight="1">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
+      <c r="A52" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s" s="5">
+        <v>101</v>
+      </c>
     </row>
     <row r="53" ht="40.25" customHeight="1">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
+      <c r="A53" t="s" s="4">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s" s="5">
+        <v>103</v>
+      </c>
     </row>
     <row r="54" ht="40.25" customHeight="1">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
+      <c r="A54" t="s" s="4">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s" s="5">
+        <v>105</v>
+      </c>
     </row>
     <row r="55" ht="40.25" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
+      <c r="A55" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s" s="5">
+        <v>107</v>
+      </c>
     </row>
     <row r="56" ht="40.25" customHeight="1">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
+      <c r="A56" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s" s="5">
+        <v>109</v>
+      </c>
     </row>
     <row r="57" ht="40.25" customHeight="1">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9"/>
+      <c r="A57" t="s" s="4">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s" s="5">
+        <v>111</v>
+      </c>
     </row>
     <row r="58" ht="40.25" customHeight="1">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
+      <c r="A58" t="s" s="4">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s" s="5">
+        <v>113</v>
+      </c>
     </row>
     <row r="59" ht="44.75" customHeight="1">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
+      <c r="A59" t="s" s="4">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s" s="5">
+        <v>115</v>
+      </c>
     </row>
     <row r="60" ht="40.25" customHeight="1">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
+      <c r="A60" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s" s="5">
+        <v>117</v>
+      </c>
     </row>
     <row r="61" ht="44.75" customHeight="1">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9"/>
+      <c r="A61" t="s" s="4">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s" s="5">
+        <v>119</v>
+      </c>
     </row>
     <row r="62" ht="44.75" customHeight="1">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
+      <c r="A62" t="s" s="4">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s" s="5">
+        <v>121</v>
+      </c>
     </row>
     <row r="63" ht="40.25" customHeight="1">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9"/>
+      <c r="A63" t="s" s="4">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s" s="5">
+        <v>123</v>
+      </c>
     </row>
     <row r="64" ht="44.75" customHeight="1">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
+      <c r="A64" t="s" s="4">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s" s="5">
+        <v>125</v>
+      </c>
     </row>
     <row r="65" ht="44.75" customHeight="1">
-      <c r="A65" s="8"/>
-      <c r="B65" s="9"/>
+      <c r="A65" t="s" s="4">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s" s="5">
+        <v>127</v>
+      </c>
     </row>
     <row r="66" ht="44.75" customHeight="1">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9"/>
+      <c r="A66" t="s" s="4">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s" s="5">
+        <v>129</v>
+      </c>
     </row>
     <row r="67" ht="44.75" customHeight="1">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9"/>
+      <c r="A67" t="s" s="4">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s" s="5">
+        <v>131</v>
+      </c>
     </row>
     <row r="68" ht="44.75" customHeight="1">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
+      <c r="A68" t="s" s="4">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s" s="5">
+        <v>133</v>
+      </c>
     </row>
     <row r="69" ht="44.75" customHeight="1">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9"/>
+      <c r="A69" t="s" s="4">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s" s="5">
+        <v>135</v>
+      </c>
     </row>
     <row r="70" ht="44.75" customHeight="1">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
+      <c r="A70" t="s" s="4">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s" s="5">
+        <v>137</v>
+      </c>
     </row>
     <row r="71" ht="44.75" customHeight="1">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9"/>
+      <c r="A71" t="s" s="4">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s" s="5">
+        <v>139</v>
+      </c>
     </row>
     <row r="72" ht="44.75" customHeight="1">
-      <c r="A72" s="8"/>
-      <c r="B72" s="9"/>
+      <c r="A72" t="s" s="4">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s" s="5">
+        <v>141</v>
+      </c>
     </row>
     <row r="73" ht="44.75" customHeight="1">
-      <c r="A73" s="8"/>
-      <c r="B73" s="9"/>
+      <c r="A73" t="s" s="4">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s" s="5">
+        <v>143</v>
+      </c>
     </row>
     <row r="74" ht="44.75" customHeight="1">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9"/>
+      <c r="A74" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s" s="5">
+        <v>145</v>
+      </c>
     </row>
     <row r="75" ht="44.75" customHeight="1">
-      <c r="A75" s="8"/>
-      <c r="B75" s="9"/>
+      <c r="A75" t="s" s="4">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s" s="5">
+        <v>147</v>
+      </c>
     </row>
     <row r="76" ht="44.75" customHeight="1">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9"/>
+      <c r="A76" t="s" s="4">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s" s="5">
+        <v>149</v>
+      </c>
     </row>
     <row r="77" ht="44.75" customHeight="1">
-      <c r="A77" s="8"/>
-      <c r="B77" s="9"/>
+      <c r="A77" t="s" s="4">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s" s="5">
+        <v>151</v>
+      </c>
     </row>
     <row r="78" ht="44.75" customHeight="1">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9"/>
+      <c r="A78" t="s" s="4">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s" s="5">
+        <v>153</v>
+      </c>
     </row>
     <row r="79" ht="44.75" customHeight="1">
-      <c r="A79" s="8"/>
-      <c r="B79" s="9"/>
+      <c r="A79" t="s" s="4">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s" s="5">
+        <v>155</v>
+      </c>
     </row>
     <row r="80" ht="44.75" customHeight="1">
-      <c r="A80" s="8"/>
-      <c r="B80" s="9"/>
+      <c r="A80" t="s" s="4">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s" s="5">
+        <v>157</v>
+      </c>
     </row>
     <row r="81" ht="44.75" customHeight="1">
-      <c r="A81" s="8"/>
-      <c r="B81" s="9"/>
+      <c r="A81" t="s" s="4">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s" s="5">
+        <v>159</v>
+      </c>
     </row>
     <row r="82" ht="44.75" customHeight="1">
-      <c r="A82" s="8"/>
-      <c r="B82" s="9"/>
+      <c r="A82" t="s" s="4">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s" s="5">
+        <v>161</v>
+      </c>
     </row>
     <row r="83" ht="44.75" customHeight="1">
-      <c r="A83" s="8"/>
-      <c r="B83" s="9"/>
+      <c r="A83" t="s" s="4">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s" s="5">
+        <v>163</v>
+      </c>
     </row>
     <row r="84" ht="44.75" customHeight="1">
-      <c r="A84" s="8"/>
-      <c r="B84" s="9"/>
+      <c r="A84" t="s" s="4">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s" s="5">
+        <v>165</v>
+      </c>
     </row>
     <row r="85" ht="44.75" customHeight="1">
-      <c r="A85" s="8"/>
-      <c r="B85" s="9"/>
+      <c r="A85" t="s" s="4">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s" s="5">
+        <v>167</v>
+      </c>
     </row>
     <row r="86" ht="44.75" customHeight="1">
-      <c r="A86" s="8"/>
-      <c r="B86" s="9"/>
+      <c r="A86" t="s" s="4">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s" s="5">
+        <v>169</v>
+      </c>
     </row>
     <row r="87" ht="40.25" customHeight="1">
-      <c r="A87" s="8"/>
-      <c r="B87" s="9"/>
+      <c r="A87" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="B87" t="s" s="5">
+        <v>171</v>
+      </c>
     </row>
     <row r="88" ht="44.75" customHeight="1">
-      <c r="A88" s="8"/>
-      <c r="B88" s="9"/>
+      <c r="A88" t="s" s="4">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s" s="5">
+        <v>173</v>
+      </c>
     </row>
     <row r="89" ht="44.75" customHeight="1">
-      <c r="A89" s="8"/>
-      <c r="B89" s="9"/>
+      <c r="A89" t="s" s="4">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s" s="5">
+        <v>175</v>
+      </c>
     </row>
     <row r="90" ht="44.75" customHeight="1">
-      <c r="A90" s="8"/>
-      <c r="B90" s="9"/>
+      <c r="A90" t="s" s="4">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s" s="5">
+        <v>177</v>
+      </c>
     </row>
     <row r="91" ht="44.75" customHeight="1">
-      <c r="A91" s="8"/>
-      <c r="B91" s="9"/>
+      <c r="A91" t="s" s="4">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s" s="5">
+        <v>179</v>
+      </c>
     </row>
     <row r="92" ht="44.75" customHeight="1">
-      <c r="A92" s="8"/>
-      <c r="B92" s="9"/>
+      <c r="A92" t="s" s="4">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s" s="5">
+        <v>181</v>
+      </c>
     </row>
     <row r="93" ht="44.75" customHeight="1">
-      <c r="A93" s="8"/>
-      <c r="B93" s="9"/>
+      <c r="A93" t="s" s="4">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s" s="5">
+        <v>183</v>
+      </c>
     </row>
     <row r="94" ht="40.25" customHeight="1">
-      <c r="A94" s="8"/>
-      <c r="B94" s="9"/>
+      <c r="A94" t="s" s="4">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s" s="5">
+        <v>185</v>
+      </c>
     </row>
     <row r="95" ht="44.75" customHeight="1">
-      <c r="A95" s="8"/>
-      <c r="B95" s="9"/>
+      <c r="A95" t="s" s="4">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s" s="5">
+        <v>187</v>
+      </c>
     </row>
     <row r="96" ht="44.75" customHeight="1">
-      <c r="A96" s="8"/>
-      <c r="B96" s="9"/>
+      <c r="A96" t="s" s="4">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s" s="5">
+        <v>189</v>
+      </c>
     </row>
     <row r="97" ht="44.75" customHeight="1">
-      <c r="A97" s="8"/>
-      <c r="B97" s="9"/>
+      <c r="A97" t="s" s="4">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s" s="5">
+        <v>191</v>
+      </c>
     </row>
     <row r="98" ht="44.75" customHeight="1">
-      <c r="A98" s="8"/>
-      <c r="B98" s="9"/>
+      <c r="A98" t="s" s="4">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s" s="5">
+        <v>193</v>
+      </c>
     </row>
     <row r="99" ht="44.75" customHeight="1">
-      <c r="A99" s="8"/>
-      <c r="B99" s="9"/>
+      <c r="A99" t="s" s="4">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s" s="5">
+        <v>195</v>
+      </c>
     </row>
     <row r="100" ht="40.25" customHeight="1">
-      <c r="A100" s="8"/>
-      <c r="B100" s="9"/>
+      <c r="A100" t="s" s="4">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s" s="5">
+        <v>197</v>
+      </c>
     </row>
     <row r="101" ht="44.75" customHeight="1">
-      <c r="A101" s="8"/>
-      <c r="B101" s="9"/>
+      <c r="A101" t="s" s="4">
+        <v>198</v>
+      </c>
+      <c r="B101" t="s" s="5">
+        <v>199</v>
+      </c>
     </row>
     <row r="102" ht="40.25" customHeight="1">
-      <c r="A102" s="8"/>
-      <c r="B102" s="9"/>
+      <c r="A102" t="s" s="4">
+        <v>200</v>
+      </c>
+      <c r="B102" t="s" s="5">
+        <v>201</v>
+      </c>
     </row>
     <row r="103" ht="44.75" customHeight="1">
-      <c r="A103" s="8"/>
-      <c r="B103" s="9"/>
+      <c r="A103" t="s" s="4">
+        <v>202</v>
+      </c>
+      <c r="B103" t="s" s="5">
+        <v>203</v>
+      </c>
     </row>
     <row r="104" ht="40.25" customHeight="1">
-      <c r="A104" s="8"/>
-      <c r="B104" s="9"/>
+      <c r="A104" t="s" s="4">
+        <v>204</v>
+      </c>
+      <c r="B104" t="s" s="5">
+        <v>205</v>
+      </c>
     </row>
     <row r="105" ht="44.75" customHeight="1">
-      <c r="A105" s="8"/>
-      <c r="B105" s="9"/>
+      <c r="A105" t="s" s="4">
+        <v>206</v>
+      </c>
+      <c r="B105" t="s" s="5">
+        <v>207</v>
+      </c>
     </row>
     <row r="106" ht="44.75" customHeight="1">
-      <c r="A106" s="8"/>
-      <c r="B106" s="9"/>
+      <c r="A106" t="s" s="4">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s" s="5">
+        <v>209</v>
+      </c>
     </row>
     <row r="107" ht="44.75" customHeight="1">
-      <c r="A107" s="8"/>
-      <c r="B107" s="9"/>
+      <c r="A107" t="s" s="4">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s" s="5">
+        <v>211</v>
+      </c>
     </row>
     <row r="108" ht="44.75" customHeight="1">
-      <c r="A108" s="8"/>
-      <c r="B108" s="9"/>
+      <c r="A108" t="s" s="4">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s" s="5">
+        <v>213</v>
+      </c>
     </row>
     <row r="109" ht="40.25" customHeight="1">
-      <c r="A109" s="8"/>
-      <c r="B109" s="9"/>
+      <c r="A109" t="s" s="4">
+        <v>214</v>
+      </c>
+      <c r="B109" t="s" s="5">
+        <v>215</v>
+      </c>
     </row>
     <row r="110" ht="40.25" customHeight="1">
-      <c r="A110" s="8"/>
-      <c r="B110" s="9"/>
+      <c r="A110" t="s" s="4">
+        <v>216</v>
+      </c>
+      <c r="B110" t="s" s="5">
+        <v>217</v>
+      </c>
     </row>
     <row r="111" ht="40.25" customHeight="1">
-      <c r="A111" s="8"/>
-      <c r="B111" s="9"/>
+      <c r="A111" t="s" s="4">
+        <v>218</v>
+      </c>
+      <c r="B111" t="s" s="5">
+        <v>219</v>
+      </c>
     </row>
     <row r="112" ht="40.25" customHeight="1">
-      <c r="A112" s="8"/>
-      <c r="B112" s="9"/>
+      <c r="A112" t="s" s="4">
+        <v>220</v>
+      </c>
+      <c r="B112" t="s" s="5">
+        <v>221</v>
+      </c>
     </row>
     <row r="113" ht="40.25" customHeight="1">
-      <c r="A113" s="8"/>
-      <c r="B113" s="9"/>
+      <c r="A113" t="s" s="4">
+        <v>222</v>
+      </c>
+      <c r="B113" t="s" s="5">
+        <v>223</v>
+      </c>
     </row>
     <row r="114" ht="40.25" customHeight="1">
-      <c r="A114" s="8"/>
-      <c r="B114" s="9"/>
+      <c r="A114" t="s" s="4">
+        <v>224</v>
+      </c>
+      <c r="B114" t="s" s="5">
+        <v>225</v>
+      </c>
     </row>
     <row r="115" ht="40.25" customHeight="1">
-      <c r="A115" s="8"/>
-      <c r="B115" s="9"/>
+      <c r="A115" t="s" s="4">
+        <v>226</v>
+      </c>
+      <c r="B115" t="s" s="5">
+        <v>227</v>
+      </c>
     </row>
     <row r="116" ht="40.25" customHeight="1">
-      <c r="A116" s="8"/>
-      <c r="B116" s="9"/>
+      <c r="A116" t="s" s="4">
+        <v>228</v>
+      </c>
+      <c r="B116" t="s" s="5">
+        <v>229</v>
+      </c>
     </row>
     <row r="117" ht="40.25" customHeight="1">
-      <c r="A117" s="8"/>
-      <c r="B117" s="9"/>
+      <c r="A117" t="s" s="4">
+        <v>230</v>
+      </c>
+      <c r="B117" t="s" s="5">
+        <v>231</v>
+      </c>
     </row>
     <row r="118" ht="40.25" customHeight="1">
-      <c r="A118" s="8"/>
-      <c r="B118" s="9"/>
+      <c r="A118" t="s" s="4">
+        <v>232</v>
+      </c>
+      <c r="B118" t="s" s="5">
+        <v>233</v>
+      </c>
     </row>
     <row r="119" ht="44.75" customHeight="1">
-      <c r="A119" s="8"/>
-      <c r="B119" s="9"/>
+      <c r="A119" t="s" s="4">
+        <v>234</v>
+      </c>
+      <c r="B119" t="s" s="5">
+        <v>235</v>
+      </c>
     </row>
     <row r="120" ht="40.25" customHeight="1">
-      <c r="A120" s="8"/>
-      <c r="B120" s="9"/>
+      <c r="A120" t="s" s="4">
+        <v>236</v>
+      </c>
+      <c r="B120" t="s" s="5">
+        <v>237</v>
+      </c>
     </row>
     <row r="121" ht="44.75" customHeight="1">
-      <c r="A121" s="8"/>
-      <c r="B121" s="9"/>
+      <c r="A121" t="s" s="4">
+        <v>238</v>
+      </c>
+      <c r="B121" t="s" s="5">
+        <v>239</v>
+      </c>
     </row>
     <row r="122" ht="40.25" customHeight="1">
-      <c r="A122" s="8"/>
-      <c r="B122" s="9"/>
+      <c r="A122" t="s" s="4">
+        <v>240</v>
+      </c>
+      <c r="B122" t="s" s="5">
+        <v>241</v>
+      </c>
     </row>
     <row r="123" ht="44.75" customHeight="1">
-      <c r="A123" s="8"/>
-      <c r="B123" s="9"/>
+      <c r="A123" t="s" s="4">
+        <v>242</v>
+      </c>
+      <c r="B123" t="s" s="5">
+        <v>243</v>
+      </c>
     </row>
     <row r="124" ht="44.75" customHeight="1">
-      <c r="A124" s="8"/>
-      <c r="B124" s="9"/>
+      <c r="A124" t="s" s="4">
+        <v>244</v>
+      </c>
+      <c r="B124" t="s" s="5">
+        <v>245</v>
+      </c>
     </row>
     <row r="125" ht="44.75" customHeight="1">
-      <c r="A125" s="8"/>
-      <c r="B125" s="9"/>
+      <c r="A125" t="s" s="4">
+        <v>246</v>
+      </c>
+      <c r="B125" t="s" s="5">
+        <v>247</v>
+      </c>
     </row>
     <row r="126" ht="44.75" customHeight="1">
-      <c r="A126" s="8"/>
-      <c r="B126" s="9"/>
+      <c r="A126" t="s" s="4">
+        <v>248</v>
+      </c>
+      <c r="B126" t="s" s="5">
+        <v>249</v>
+      </c>
     </row>
     <row r="127" ht="44.75" customHeight="1">
-      <c r="A127" s="8"/>
-      <c r="B127" s="9"/>
+      <c r="A127" t="s" s="4">
+        <v>250</v>
+      </c>
+      <c r="B127" t="s" s="5">
+        <v>251</v>
+      </c>
     </row>
     <row r="128" ht="44.75" customHeight="1">
-      <c r="A128" s="8"/>
-      <c r="B128" s="9"/>
+      <c r="A128" t="s" s="4">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s" s="5">
+        <v>253</v>
+      </c>
     </row>
     <row r="129" ht="40.25" customHeight="1">
-      <c r="A129" s="8"/>
-      <c r="B129" s="9"/>
+      <c r="A129" t="s" s="4">
+        <v>254</v>
+      </c>
+      <c r="B129" t="s" s="5">
+        <v>255</v>
+      </c>
     </row>
     <row r="130" ht="44.75" customHeight="1">
-      <c r="A130" s="8"/>
-      <c r="B130" s="9"/>
+      <c r="A130" t="s" s="4">
+        <v>256</v>
+      </c>
+      <c r="B130" t="s" s="5">
+        <v>257</v>
+      </c>
     </row>
     <row r="131" ht="44.75" customHeight="1">
-      <c r="A131" s="8"/>
-      <c r="B131" s="9"/>
+      <c r="A131" t="s" s="4">
+        <v>258</v>
+      </c>
+      <c r="B131" t="s" s="5">
+        <v>259</v>
+      </c>
     </row>
     <row r="132" ht="44.75" customHeight="1">
-      <c r="A132" s="8"/>
-      <c r="B132" s="9"/>
+      <c r="A132" t="s" s="4">
+        <v>260</v>
+      </c>
+      <c r="B132" t="s" s="5">
+        <v>261</v>
+      </c>
     </row>
     <row r="133" ht="44.75" customHeight="1">
-      <c r="A133" s="8"/>
-      <c r="B133" s="9"/>
+      <c r="A133" t="s" s="4">
+        <v>262</v>
+      </c>
+      <c r="B133" t="s" s="5">
+        <v>263</v>
+      </c>
     </row>
     <row r="134" ht="44.75" customHeight="1">
-      <c r="A134" s="8"/>
-      <c r="B134" s="9"/>
+      <c r="A134" t="s" s="4">
+        <v>264</v>
+      </c>
+      <c r="B134" t="s" s="5">
+        <v>265</v>
+      </c>
     </row>
     <row r="135" ht="40.25" customHeight="1">
-      <c r="A135" s="8"/>
-      <c r="B135" s="9"/>
+      <c r="A135" t="s" s="4">
+        <v>266</v>
+      </c>
+      <c r="B135" t="s" s="5">
+        <v>267</v>
+      </c>
     </row>
     <row r="136" ht="40.25" customHeight="1">
-      <c r="A136" s="8"/>
-      <c r="B136" s="9"/>
+      <c r="A136" t="s" s="4">
+        <v>268</v>
+      </c>
+      <c r="B136" t="s" s="5">
+        <v>269</v>
+      </c>
     </row>
     <row r="137" ht="44.75" customHeight="1">
-      <c r="A137" s="8"/>
-      <c r="B137" s="9"/>
+      <c r="A137" t="s" s="4">
+        <v>270</v>
+      </c>
+      <c r="B137" t="s" s="5">
+        <v>271</v>
+      </c>
     </row>
     <row r="138" ht="44.75" customHeight="1">
-      <c r="A138" s="8"/>
-      <c r="B138" s="9"/>
+      <c r="A138" t="s" s="4">
+        <v>272</v>
+      </c>
+      <c r="B138" t="s" s="5">
+        <v>273</v>
+      </c>
     </row>
     <row r="139" ht="44.75" customHeight="1">
-      <c r="A139" s="8"/>
-      <c r="B139" s="9"/>
+      <c r="A139" t="s" s="4">
+        <v>274</v>
+      </c>
+      <c r="B139" t="s" s="5">
+        <v>275</v>
+      </c>
     </row>
     <row r="140" ht="44.75" customHeight="1">
-      <c r="A140" s="8"/>
-      <c r="B140" s="9"/>
+      <c r="A140" t="s" s="4">
+        <v>276</v>
+      </c>
+      <c r="B140" t="s" s="5">
+        <v>277</v>
+      </c>
     </row>
     <row r="141" ht="44.75" customHeight="1">
-      <c r="A141" s="8"/>
-      <c r="B141" s="9"/>
+      <c r="A141" t="s" s="4">
+        <v>278</v>
+      </c>
+      <c r="B141" t="s" s="5">
+        <v>279</v>
+      </c>
     </row>
     <row r="142" ht="44.75" customHeight="1">
-      <c r="A142" s="8"/>
-      <c r="B142" s="9"/>
+      <c r="A142" t="s" s="4">
+        <v>280</v>
+      </c>
+      <c r="B142" t="s" s="5">
+        <v>281</v>
+      </c>
     </row>
     <row r="143" ht="44.75" customHeight="1">
-      <c r="A143" s="8"/>
-      <c r="B143" s="9"/>
+      <c r="A143" t="s" s="4">
+        <v>282</v>
+      </c>
+      <c r="B143" t="s" s="5">
+        <v>283</v>
+      </c>
     </row>
     <row r="144" ht="44.75" customHeight="1">
-      <c r="A144" s="8"/>
-      <c r="B144" s="9"/>
+      <c r="A144" t="s" s="4">
+        <v>284</v>
+      </c>
+      <c r="B144" t="s" s="5">
+        <v>285</v>
+      </c>
     </row>
     <row r="145" ht="40.25" customHeight="1">
-      <c r="A145" s="8"/>
-      <c r="B145" s="9"/>
+      <c r="A145" t="s" s="4">
+        <v>286</v>
+      </c>
+      <c r="B145" t="s" s="5">
+        <v>287</v>
+      </c>
     </row>
     <row r="146" ht="40.25" customHeight="1">
-      <c r="A146" s="8"/>
-      <c r="B146" s="9"/>
+      <c r="A146" t="s" s="4">
+        <v>288</v>
+      </c>
+      <c r="B146" t="s" s="5">
+        <v>289</v>
+      </c>
     </row>
     <row r="147" ht="44.75" customHeight="1">
-      <c r="A147" s="8"/>
-      <c r="B147" s="9"/>
+      <c r="A147" t="s" s="4">
+        <v>290</v>
+      </c>
+      <c r="B147" t="s" s="5">
+        <v>291</v>
+      </c>
     </row>
     <row r="148" ht="44.75" customHeight="1">
-      <c r="A148" s="8"/>
-      <c r="B148" s="9"/>
+      <c r="A148" t="s" s="4">
+        <v>292</v>
+      </c>
+      <c r="B148" t="s" s="5">
+        <v>293</v>
+      </c>
     </row>
     <row r="149" ht="44.75" customHeight="1">
-      <c r="A149" s="8"/>
-      <c r="B149" s="9"/>
+      <c r="A149" t="s" s="4">
+        <v>294</v>
+      </c>
+      <c r="B149" t="s" s="5">
+        <v>295</v>
+      </c>
     </row>
     <row r="150" ht="44.75" customHeight="1">
-      <c r="A150" s="8"/>
-      <c r="B150" s="9"/>
+      <c r="A150" t="s" s="4">
+        <v>296</v>
+      </c>
+      <c r="B150" t="s" s="5">
+        <v>297</v>
+      </c>
     </row>
     <row r="151" ht="44.75" customHeight="1">
-      <c r="A151" s="8"/>
-      <c r="B151" s="9"/>
+      <c r="A151" t="s" s="4">
+        <v>298</v>
+      </c>
+      <c r="B151" t="s" s="5">
+        <v>299</v>
+      </c>
     </row>
     <row r="152" ht="44.75" customHeight="1">
-      <c r="A152" s="8"/>
-      <c r="B152" s="9"/>
+      <c r="A152" t="s" s="4">
+        <v>300</v>
+      </c>
+      <c r="B152" t="s" s="5">
+        <v>301</v>
+      </c>
     </row>
     <row r="153" ht="44.75" customHeight="1">
-      <c r="A153" s="8"/>
-      <c r="B153" s="9"/>
+      <c r="A153" t="s" s="4">
+        <v>302</v>
+      </c>
+      <c r="B153" t="s" s="5">
+        <v>303</v>
+      </c>
     </row>
     <row r="154" ht="44.75" customHeight="1">
-      <c r="A154" s="8"/>
-      <c r="B154" s="9"/>
+      <c r="A154" t="s" s="4">
+        <v>304</v>
+      </c>
+      <c r="B154" t="s" s="5">
+        <v>305</v>
+      </c>
     </row>
     <row r="155" ht="44.75" customHeight="1">
-      <c r="A155" s="8"/>
-      <c r="B155" s="9"/>
+      <c r="A155" t="s" s="4">
+        <v>306</v>
+      </c>
+      <c r="B155" t="s" s="5">
+        <v>307</v>
+      </c>
     </row>
     <row r="156" ht="44.75" customHeight="1">
-      <c r="A156" s="8"/>
-      <c r="B156" s="9"/>
+      <c r="A156" t="s" s="4">
+        <v>308</v>
+      </c>
+      <c r="B156" t="s" s="5">
+        <v>309</v>
+      </c>
     </row>
     <row r="157" ht="44.75" customHeight="1">
-      <c r="A157" s="8"/>
-      <c r="B157" s="9"/>
+      <c r="A157" t="s" s="4">
+        <v>310</v>
+      </c>
+      <c r="B157" t="s" s="5">
+        <v>311</v>
+      </c>
     </row>
     <row r="158" ht="44.75" customHeight="1">
-      <c r="A158" s="8"/>
-      <c r="B158" s="9"/>
+      <c r="A158" t="s" s="4">
+        <v>312</v>
+      </c>
+      <c r="B158" t="s" s="5">
+        <v>313</v>
+      </c>
     </row>
     <row r="159" ht="44.75" customHeight="1">
-      <c r="A159" s="8"/>
-      <c r="B159" s="9"/>
+      <c r="A159" t="s" s="4">
+        <v>314</v>
+      </c>
+      <c r="B159" t="s" s="5">
+        <v>315</v>
+      </c>
     </row>
     <row r="160" ht="44.75" customHeight="1">
-      <c r="A160" s="8"/>
-      <c r="B160" s="9"/>
+      <c r="A160" t="s" s="4">
+        <v>316</v>
+      </c>
+      <c r="B160" t="s" s="5">
+        <v>317</v>
+      </c>
     </row>
     <row r="161" ht="44.75" customHeight="1">
-      <c r="A161" s="8"/>
-      <c r="B161" s="9"/>
+      <c r="A161" t="s" s="4">
+        <v>318</v>
+      </c>
+      <c r="B161" t="s" s="5">
+        <v>319</v>
+      </c>
     </row>
     <row r="162" ht="44.75" customHeight="1">
-      <c r="A162" s="8"/>
-      <c r="B162" s="9"/>
+      <c r="A162" t="s" s="4">
+        <v>320</v>
+      </c>
+      <c r="B162" t="s" s="5">
+        <v>321</v>
+      </c>
     </row>
     <row r="163" ht="40.25" customHeight="1">
-      <c r="A163" s="8"/>
-      <c r="B163" s="9"/>
+      <c r="A163" t="s" s="4">
+        <v>322</v>
+      </c>
+      <c r="B163" t="s" s="5">
+        <v>323</v>
+      </c>
     </row>
     <row r="164" ht="40.25" customHeight="1">
-      <c r="A164" s="8"/>
-      <c r="B164" s="9"/>
+      <c r="A164" t="s" s="4">
+        <v>324</v>
+      </c>
+      <c r="B164" t="s" s="5">
+        <v>325</v>
+      </c>
     </row>
     <row r="165" ht="40.25" customHeight="1">
-      <c r="A165" s="8"/>
-      <c r="B165" s="9"/>
+      <c r="A165" t="s" s="4">
+        <v>326</v>
+      </c>
+      <c r="B165" t="s" s="5">
+        <v>327</v>
+      </c>
     </row>
     <row r="166" ht="40.25" customHeight="1">
-      <c r="A166" s="8"/>
-      <c r="B166" s="9"/>
+      <c r="A166" t="s" s="4">
+        <v>328</v>
+      </c>
+      <c r="B166" t="s" s="5">
+        <v>329</v>
+      </c>
     </row>
     <row r="167" ht="44.75" customHeight="1">
-      <c r="A167" s="8"/>
-      <c r="B167" s="9"/>
+      <c r="A167" t="s" s="4">
+        <v>330</v>
+      </c>
+      <c r="B167" t="s" s="5">
+        <v>331</v>
+      </c>
     </row>
     <row r="168" ht="40.25" customHeight="1">
-      <c r="A168" s="8"/>
-      <c r="B168" s="9"/>
+      <c r="A168" t="s" s="4">
+        <v>332</v>
+      </c>
+      <c r="B168" t="s" s="5">
+        <v>333</v>
+      </c>
     </row>
     <row r="169" ht="44.75" customHeight="1">
-      <c r="A169" s="8"/>
-      <c r="B169" s="9"/>
+      <c r="A169" t="s" s="4">
+        <v>334</v>
+      </c>
+      <c r="B169" t="s" s="5">
+        <v>335</v>
+      </c>
     </row>
     <row r="170" ht="40.25" customHeight="1">
-      <c r="A170" s="8"/>
-      <c r="B170" s="9"/>
+      <c r="A170" t="s" s="4">
+        <v>336</v>
+      </c>
+      <c r="B170" t="s" s="5">
+        <v>337</v>
+      </c>
     </row>
     <row r="171" ht="44.75" customHeight="1">
-      <c r="A171" s="8"/>
-      <c r="B171" s="9"/>
+      <c r="A171" t="s" s="4">
+        <v>338</v>
+      </c>
+      <c r="B171" t="s" s="5">
+        <v>339</v>
+      </c>
     </row>
     <row r="172" ht="40.25" customHeight="1">
-      <c r="A172" s="8"/>
-      <c r="B172" s="9"/>
+      <c r="A172" t="s" s="4">
+        <v>340</v>
+      </c>
+      <c r="B172" t="s" s="5">
+        <v>341</v>
+      </c>
     </row>
     <row r="173" ht="40.25" customHeight="1">
-      <c r="A173" s="8"/>
-      <c r="B173" s="9"/>
+      <c r="A173" t="s" s="4">
+        <v>342</v>
+      </c>
+      <c r="B173" t="s" s="5">
+        <v>343</v>
+      </c>
     </row>
     <row r="174" ht="44.75" customHeight="1">
-      <c r="A174" s="8"/>
-      <c r="B174" s="9"/>
+      <c r="A174" t="s" s="4">
+        <v>344</v>
+      </c>
+      <c r="B174" t="s" s="5">
+        <v>345</v>
+      </c>
     </row>
     <row r="175" ht="44.75" customHeight="1">
-      <c r="A175" s="8"/>
-      <c r="B175" s="9"/>
+      <c r="A175" t="s" s="4">
+        <v>346</v>
+      </c>
+      <c r="B175" t="s" s="5">
+        <v>347</v>
+      </c>
     </row>
     <row r="176" ht="62.75" customHeight="1">
-      <c r="A176" s="8"/>
-      <c r="B176" s="9"/>
+      <c r="A176" t="s" s="4">
+        <v>348</v>
+      </c>
+      <c r="B176" t="s" s="5">
+        <v>349</v>
+      </c>
     </row>
     <row r="177" ht="40.25" customHeight="1">
-      <c r="A177" s="8"/>
-      <c r="B177" s="9"/>
+      <c r="A177" t="s" s="4">
+        <v>350</v>
+      </c>
+      <c r="B177" t="s" s="5">
+        <v>351</v>
+      </c>
     </row>
     <row r="178" ht="44.75" customHeight="1">
-      <c r="A178" s="8"/>
-      <c r="B178" s="9"/>
+      <c r="A178" t="s" s="4">
+        <v>352</v>
+      </c>
+      <c r="B178" t="s" s="5">
+        <v>353</v>
+      </c>
     </row>
     <row r="179" ht="62.75" customHeight="1">
-      <c r="A179" s="8"/>
-      <c r="B179" s="9"/>
+      <c r="A179" t="s" s="4">
+        <v>354</v>
+      </c>
+      <c r="B179" t="s" s="5">
+        <v>355</v>
+      </c>
     </row>
     <row r="180" ht="62.75" customHeight="1">
-      <c r="A180" s="8"/>
-      <c r="B180" s="9"/>
+      <c r="A180" t="s" s="4">
+        <v>356</v>
+      </c>
+      <c r="B180" t="s" s="5">
+        <v>357</v>
+      </c>
     </row>
     <row r="181" ht="62.75" customHeight="1">
-      <c r="A181" s="8"/>
-      <c r="B181" s="9"/>
+      <c r="A181" t="s" s="4">
+        <v>358</v>
+      </c>
+      <c r="B181" t="s" s="5">
+        <v>359</v>
+      </c>
     </row>
     <row r="182" ht="62.75" customHeight="1">
-      <c r="A182" s="8"/>
-      <c r="B182" s="9"/>
+      <c r="A182" t="s" s="4">
+        <v>360</v>
+      </c>
+      <c r="B182" t="s" s="5">
+        <v>361</v>
+      </c>
     </row>
     <row r="183" ht="44.75" customHeight="1">
-      <c r="A183" s="8"/>
-      <c r="B183" s="9"/>
+      <c r="A183" t="s" s="4">
+        <v>362</v>
+      </c>
+      <c r="B183" t="s" s="5">
+        <v>363</v>
+      </c>
     </row>
     <row r="184" ht="44.75" customHeight="1">
-      <c r="A184" s="8"/>
-      <c r="B184" s="9"/>
+      <c r="A184" t="s" s="4">
+        <v>364</v>
+      </c>
+      <c r="B184" t="s" s="5">
+        <v>365</v>
+      </c>
     </row>
     <row r="185" ht="44.75" customHeight="1">
-      <c r="A185" s="8"/>
-      <c r="B185" s="9"/>
+      <c r="A185" t="s" s="4">
+        <v>366</v>
+      </c>
+      <c r="B185" t="s" s="5">
+        <v>367</v>
+      </c>
     </row>
     <row r="186" ht="40.25" customHeight="1">
-      <c r="A186" s="8"/>
-      <c r="B186" s="9"/>
+      <c r="A186" t="s" s="4">
+        <v>368</v>
+      </c>
+      <c r="B186" t="s" s="5">
+        <v>369</v>
+      </c>
     </row>
     <row r="187" ht="44.75" customHeight="1">
-      <c r="A187" s="8"/>
-      <c r="B187" s="9"/>
+      <c r="A187" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="B187" t="s" s="5">
+        <v>371</v>
+      </c>
     </row>
     <row r="188" ht="40.25" customHeight="1">
-      <c r="A188" s="8"/>
-      <c r="B188" s="9"/>
+      <c r="A188" t="s" s="4">
+        <v>372</v>
+      </c>
+      <c r="B188" t="s" s="5">
+        <v>373</v>
+      </c>
     </row>
     <row r="189" ht="44.75" customHeight="1">
-      <c r="A189" s="8"/>
-      <c r="B189" s="9"/>
+      <c r="A189" t="s" s="4">
+        <v>374</v>
+      </c>
+      <c r="B189" t="s" s="5">
+        <v>375</v>
+      </c>
     </row>
     <row r="190" ht="44.75" customHeight="1">
-      <c r="A190" s="8"/>
-      <c r="B190" s="9"/>
+      <c r="A190" t="s" s="4">
+        <v>376</v>
+      </c>
+      <c r="B190" t="s" s="5">
+        <v>377</v>
+      </c>
     </row>
     <row r="191" ht="44.75" customHeight="1">
-      <c r="A191" s="8"/>
-      <c r="B191" s="9"/>
+      <c r="A191" t="s" s="4">
+        <v>378</v>
+      </c>
+      <c r="B191" t="s" s="5">
+        <v>379</v>
+      </c>
     </row>
     <row r="192" ht="44.75" customHeight="1">
-      <c r="A192" s="8"/>
-      <c r="B192" s="9"/>
+      <c r="A192" t="s" s="4">
+        <v>380</v>
+      </c>
+      <c r="B192" t="s" s="5">
+        <v>381</v>
+      </c>
     </row>
     <row r="193" ht="40.25" customHeight="1">
-      <c r="A193" s="8"/>
-      <c r="B193" s="9"/>
+      <c r="A193" t="s" s="4">
+        <v>382</v>
+      </c>
+      <c r="B193" t="s" s="5">
+        <v>383</v>
+      </c>
     </row>
     <row r="194" ht="44.75" customHeight="1">
-      <c r="A194" s="8"/>
-      <c r="B194" s="9"/>
+      <c r="A194" t="s" s="4">
+        <v>384</v>
+      </c>
+      <c r="B194" t="s" s="5">
+        <v>385</v>
+      </c>
     </row>
     <row r="195" ht="44.75" customHeight="1">
-      <c r="A195" s="8"/>
-      <c r="B195" s="9"/>
+      <c r="A195" t="s" s="4">
+        <v>386</v>
+      </c>
+      <c r="B195" t="s" s="5">
+        <v>387</v>
+      </c>
     </row>
     <row r="196" ht="44.75" customHeight="1">
-      <c r="A196" s="8"/>
-      <c r="B196" s="9"/>
+      <c r="A196" t="s" s="4">
+        <v>388</v>
+      </c>
+      <c r="B196" t="s" s="5">
+        <v>389</v>
+      </c>
     </row>
     <row r="197" ht="40.25" customHeight="1">
-      <c r="A197" s="8"/>
-      <c r="B197" s="9"/>
+      <c r="A197" t="s" s="4">
+        <v>390</v>
+      </c>
+      <c r="B197" t="s" s="5">
+        <v>391</v>
+      </c>
     </row>
     <row r="198" ht="44.75" customHeight="1">
-      <c r="A198" s="8"/>
-      <c r="B198" s="9"/>
+      <c r="A198" t="s" s="4">
+        <v>392</v>
+      </c>
+      <c r="B198" t="s" s="5">
+        <v>393</v>
+      </c>
     </row>
     <row r="199" ht="40.25" customHeight="1">
-      <c r="A199" s="8"/>
-      <c r="B199" s="9"/>
+      <c r="A199" t="s" s="4">
+        <v>394</v>
+      </c>
+      <c r="B199" t="s" s="5">
+        <v>395</v>
+      </c>
     </row>
     <row r="200" ht="40.25" customHeight="1">
-      <c r="A200" s="8"/>
-      <c r="B200" s="9"/>
+      <c r="A200" t="s" s="4">
+        <v>396</v>
+      </c>
+      <c r="B200" t="s" s="5">
+        <v>397</v>
+      </c>
     </row>
     <row r="201" ht="40.25" customHeight="1">
-      <c r="A201" s="8"/>
-      <c r="B201" s="9"/>
+      <c r="A201" t="s" s="4">
+        <v>398</v>
+      </c>
+      <c r="B201" t="s" s="5">
+        <v>399</v>
+      </c>
     </row>
     <row r="202" ht="40.25" customHeight="1">
-      <c r="A202" s="8"/>
-      <c r="B202" s="9"/>
+      <c r="A202" t="s" s="4">
+        <v>400</v>
+      </c>
+      <c r="B202" t="s" s="5">
+        <v>401</v>
+      </c>
     </row>
     <row r="203" ht="40.25" customHeight="1">
-      <c r="A203" s="8"/>
-      <c r="B203" s="9"/>
+      <c r="A203" t="s" s="4">
+        <v>402</v>
+      </c>
+      <c r="B203" t="s" s="5">
+        <v>403</v>
+      </c>
     </row>
     <row r="204" ht="40.25" customHeight="1">
-      <c r="A204" s="8"/>
-      <c r="B204" s="9"/>
+      <c r="A204" t="s" s="4">
+        <v>404</v>
+      </c>
+      <c r="B204" t="s" s="5">
+        <v>405</v>
+      </c>
     </row>
     <row r="205" ht="44.75" customHeight="1">
-      <c r="A205" s="8"/>
-      <c r="B205" s="9"/>
+      <c r="A205" t="s" s="4">
+        <v>406</v>
+      </c>
+      <c r="B205" t="s" s="5">
+        <v>407</v>
+      </c>
     </row>
     <row r="206" ht="40.25" customHeight="1">
-      <c r="A206" s="8"/>
-      <c r="B206" s="9"/>
+      <c r="A206" t="s" s="4">
+        <v>408</v>
+      </c>
+      <c r="B206" t="s" s="5">
+        <v>409</v>
+      </c>
     </row>
     <row r="207" ht="44.75" customHeight="1">
-      <c r="A207" s="8"/>
-      <c r="B207" s="9"/>
+      <c r="A207" t="s" s="4">
+        <v>410</v>
+      </c>
+      <c r="B207" t="s" s="5">
+        <v>411</v>
+      </c>
     </row>
     <row r="208" ht="44.75" customHeight="1">
-      <c r="A208" s="8"/>
-      <c r="B208" s="9"/>
+      <c r="A208" t="s" s="4">
+        <v>412</v>
+      </c>
+      <c r="B208" t="s" s="5">
+        <v>413</v>
+      </c>
     </row>
     <row r="209" ht="40.25" customHeight="1">
-      <c r="A209" s="8"/>
-      <c r="B209" s="9"/>
+      <c r="A209" t="s" s="4">
+        <v>414</v>
+      </c>
+      <c r="B209" t="s" s="5">
+        <v>415</v>
+      </c>
     </row>
     <row r="210" ht="44.75" customHeight="1">
-      <c r="A210" s="8"/>
-      <c r="B210" s="9"/>
+      <c r="A210" t="s" s="4">
+        <v>416</v>
+      </c>
+      <c r="B210" t="s" s="5">
+        <v>417</v>
+      </c>
     </row>
     <row r="211" ht="44.75" customHeight="1">
-      <c r="A211" s="8"/>
-      <c r="B211" s="9"/>
+      <c r="A211" t="s" s="4">
+        <v>418</v>
+      </c>
+      <c r="B211" t="s" s="5">
+        <v>419</v>
+      </c>
     </row>
     <row r="212" ht="44.75" customHeight="1">
-      <c r="A212" s="8"/>
-      <c r="B212" s="9"/>
+      <c r="A212" t="s" s="4">
+        <v>420</v>
+      </c>
+      <c r="B212" t="s" s="5">
+        <v>421</v>
+      </c>
     </row>
     <row r="213" ht="44.75" customHeight="1">
-      <c r="A213" s="8"/>
-      <c r="B213" s="9"/>
+      <c r="A213" t="s" s="4">
+        <v>422</v>
+      </c>
+      <c r="B213" t="s" s="5">
+        <v>423</v>
+      </c>
     </row>
     <row r="214" ht="44.75" customHeight="1">
-      <c r="A214" s="8"/>
-      <c r="B214" s="9"/>
+      <c r="A214" t="s" s="4">
+        <v>424</v>
+      </c>
+      <c r="B214" t="s" s="5">
+        <v>425</v>
+      </c>
     </row>
     <row r="215" ht="40.25" customHeight="1">
-      <c r="A215" s="8"/>
-      <c r="B215" s="9"/>
+      <c r="A215" t="s" s="4">
+        <v>426</v>
+      </c>
+      <c r="B215" t="s" s="5">
+        <v>427</v>
+      </c>
     </row>
     <row r="216" ht="40.25" customHeight="1">
-      <c r="A216" s="8"/>
-      <c r="B216" s="9"/>
+      <c r="A216" t="s" s="4">
+        <v>428</v>
+      </c>
+      <c r="B216" t="s" s="5">
+        <v>429</v>
+      </c>
     </row>
     <row r="217" ht="44.75" customHeight="1">
-      <c r="A217" s="8"/>
-      <c r="B217" s="9"/>
+      <c r="A217" t="s" s="4">
+        <v>430</v>
+      </c>
+      <c r="B217" t="s" s="5">
+        <v>431</v>
+      </c>
     </row>
     <row r="218" ht="40.25" customHeight="1">
-      <c r="A218" s="8"/>
-      <c r="B218" s="9"/>
+      <c r="A218" t="s" s="4">
+        <v>432</v>
+      </c>
+      <c r="B218" t="s" s="5">
+        <v>433</v>
+      </c>
     </row>
     <row r="219" ht="44.75" customHeight="1">
-      <c r="A219" s="8"/>
-      <c r="B219" s="9"/>
+      <c r="A219" t="s" s="4">
+        <v>434</v>
+      </c>
+      <c r="B219" t="s" s="5">
+        <v>435</v>
+      </c>
     </row>
     <row r="220" ht="44.75" customHeight="1">
-      <c r="A220" s="8"/>
-      <c r="B220" s="9"/>
+      <c r="A220" t="s" s="4">
+        <v>436</v>
+      </c>
+      <c r="B220" t="s" s="5">
+        <v>437</v>
+      </c>
     </row>
     <row r="221" ht="44.75" customHeight="1">
-      <c r="A221" s="8"/>
-      <c r="B221" s="9"/>
+      <c r="A221" t="s" s="4">
+        <v>438</v>
+      </c>
+      <c r="B221" t="s" s="5">
+        <v>439</v>
+      </c>
     </row>
     <row r="222" ht="44.75" customHeight="1">
-      <c r="A222" s="8"/>
-      <c r="B222" s="9"/>
+      <c r="A222" t="s" s="4">
+        <v>440</v>
+      </c>
+      <c r="B222" t="s" s="5">
+        <v>441</v>
+      </c>
     </row>
     <row r="223" ht="44.75" customHeight="1">
-      <c r="A223" s="8"/>
-      <c r="B223" s="9"/>
+      <c r="A223" t="s" s="4">
+        <v>442</v>
+      </c>
+      <c r="B223" t="s" s="5">
+        <v>443</v>
+      </c>
     </row>
     <row r="224" ht="44.75" customHeight="1">
-      <c r="A224" s="8"/>
-      <c r="B224" s="9"/>
+      <c r="A224" t="s" s="4">
+        <v>444</v>
+      </c>
+      <c r="B224" t="s" s="5">
+        <v>445</v>
+      </c>
     </row>
     <row r="225" ht="36" customHeight="1">
-      <c r="A225" s="8"/>
-      <c r="B225" s="9"/>
+      <c r="A225" t="s" s="4">
+        <v>446</v>
+      </c>
+      <c r="B225" t="s" s="5">
+        <v>447</v>
+      </c>
     </row>
     <row r="226" ht="44.75" customHeight="1">
-      <c r="A226" s="8"/>
-      <c r="B226" s="9"/>
+      <c r="A226" t="s" s="4">
+        <v>448</v>
+      </c>
+      <c r="B226" t="s" s="5">
+        <v>449</v>
+      </c>
     </row>
     <row r="227" ht="36" customHeight="1">
-      <c r="A227" s="8"/>
-      <c r="B227" s="9"/>
+      <c r="A227" t="s" s="4">
+        <v>450</v>
+      </c>
+      <c r="B227" t="s" s="5">
+        <v>451</v>
+      </c>
     </row>
     <row r="228" ht="36" customHeight="1">
-      <c r="A228" s="8"/>
-      <c r="B228" s="9"/>
+      <c r="A228" t="s" s="4">
+        <v>452</v>
+      </c>
+      <c r="B228" t="s" s="5">
+        <v>453</v>
+      </c>
     </row>
     <row r="229" ht="36" customHeight="1">
-      <c r="A229" s="8"/>
-      <c r="B229" s="9"/>
+      <c r="A229" t="s" s="4">
+        <v>454</v>
+      </c>
+      <c r="B229" t="s" s="5">
+        <v>455</v>
+      </c>
     </row>
     <row r="230" ht="36" customHeight="1">
-      <c r="A230" s="8"/>
-      <c r="B230" s="9"/>
+      <c r="A230" t="s" s="4">
+        <v>456</v>
+      </c>
+      <c r="B230" t="s" s="5">
+        <v>457</v>
+      </c>
     </row>
     <row r="231" ht="36" customHeight="1">
-      <c r="A231" s="8"/>
-      <c r="B231" s="9"/>
+      <c r="A231" t="s" s="4">
+        <v>458</v>
+      </c>
+      <c r="B231" t="s" s="5">
+        <v>459</v>
+      </c>
     </row>
     <row r="232" ht="36" customHeight="1">
-      <c r="A232" s="8"/>
-      <c r="B232" s="9"/>
+      <c r="A232" t="s" s="4">
+        <v>460</v>
+      </c>
+      <c r="B232" t="s" s="5">
+        <v>461</v>
+      </c>
     </row>
     <row r="233" ht="36" customHeight="1">
-      <c r="A233" s="8"/>
-      <c r="B233" s="9"/>
+      <c r="A233" t="s" s="4">
+        <v>462</v>
+      </c>
+      <c r="B233" t="s" s="5">
+        <v>463</v>
+      </c>
     </row>
     <row r="234" ht="36" customHeight="1">
-      <c r="A234" s="8"/>
-      <c r="B234" s="9"/>
+      <c r="A234" t="s" s="4">
+        <v>464</v>
+      </c>
+      <c r="B234" t="s" s="5">
+        <v>465</v>
+      </c>
     </row>
     <row r="235" ht="36" customHeight="1">
-      <c r="A235" s="8"/>
-      <c r="B235" s="9"/>
+      <c r="A235" t="s" s="4">
+        <v>466</v>
+      </c>
+      <c r="B235" t="s" s="5">
+        <v>467</v>
+      </c>
     </row>
     <row r="236" ht="36" customHeight="1">
-      <c r="A236" s="8"/>
-      <c r="B236" s="9"/>
+      <c r="A236" t="s" s="4">
+        <v>468</v>
+      </c>
+      <c r="B236" t="s" s="5">
+        <v>469</v>
+      </c>
     </row>
     <row r="237" ht="36" customHeight="1">
-      <c r="A237" s="8"/>
-      <c r="B237" s="9"/>
+      <c r="A237" t="s" s="4">
+        <v>470</v>
+      </c>
+      <c r="B237" t="s" s="5">
+        <v>471</v>
+      </c>
     </row>
     <row r="238" ht="36" customHeight="1">
-      <c r="A238" s="8"/>
-      <c r="B238" s="9"/>
+      <c r="A238" t="s" s="4">
+        <v>472</v>
+      </c>
+      <c r="B238" t="s" s="5">
+        <v>473</v>
+      </c>
     </row>
     <row r="239" ht="36" customHeight="1">
-      <c r="A239" s="8"/>
-      <c r="B239" s="9"/>
+      <c r="A239" t="s" s="4">
+        <v>474</v>
+      </c>
+      <c r="B239" t="s" s="5">
+        <v>475</v>
+      </c>
     </row>
     <row r="240" ht="36" customHeight="1">
-      <c r="A240" s="8"/>
-      <c r="B240" s="9"/>
+      <c r="A240" t="s" s="4">
+        <v>476</v>
+      </c>
+      <c r="B240" t="s" s="5">
+        <v>477</v>
+      </c>
     </row>
     <row r="241" ht="36" customHeight="1">
-      <c r="A241" s="8"/>
-      <c r="B241" s="9"/>
+      <c r="A241" t="s" s="4">
+        <v>478</v>
+      </c>
+      <c r="B241" t="s" s="5">
+        <v>479</v>
+      </c>
     </row>
     <row r="242" ht="36" customHeight="1">
-      <c r="A242" s="8"/>
-      <c r="B242" s="9"/>
+      <c r="A242" t="s" s="4">
+        <v>480</v>
+      </c>
+      <c r="B242" t="s" s="5">
+        <v>481</v>
+      </c>
     </row>
     <row r="243" ht="36" customHeight="1">
-      <c r="A243" s="8"/>
-      <c r="B243" s="9"/>
+      <c r="A243" t="s" s="4">
+        <v>482</v>
+      </c>
+      <c r="B243" t="s" s="5">
+        <v>483</v>
+      </c>
     </row>
     <row r="244" ht="36" customHeight="1">
-      <c r="A244" s="8"/>
-      <c r="B244" s="9"/>
+      <c r="A244" t="s" s="4">
+        <v>484</v>
+      </c>
+      <c r="B244" t="s" s="5">
+        <v>485</v>
+      </c>
     </row>
     <row r="245" ht="36" customHeight="1">
-      <c r="A245" s="8"/>
-      <c r="B245" s="9"/>
+      <c r="A245" t="s" s="4">
+        <v>486</v>
+      </c>
+      <c r="B245" t="s" s="5">
+        <v>487</v>
+      </c>
     </row>
     <row r="246" ht="36" customHeight="1">
-      <c r="A246" s="8"/>
-      <c r="B246" s="9"/>
+      <c r="A246" t="s" s="4">
+        <v>488</v>
+      </c>
+      <c r="B246" t="s" s="5">
+        <v>489</v>
+      </c>
     </row>
     <row r="247" ht="36" customHeight="1">
-      <c r="A247" s="8"/>
-      <c r="B247" s="9"/>
+      <c r="A247" t="s" s="4">
+        <v>490</v>
+      </c>
+      <c r="B247" t="s" s="5">
+        <v>491</v>
+      </c>
     </row>
     <row r="248" ht="36" customHeight="1">
-      <c r="A248" s="8"/>
-      <c r="B248" s="9"/>
+      <c r="A248" t="s" s="4">
+        <v>492</v>
+      </c>
+      <c r="B248" t="s" s="5">
+        <v>493</v>
+      </c>
     </row>
     <row r="249" ht="36" customHeight="1">
-      <c r="A249" s="8"/>
-      <c r="B249" s="9"/>
+      <c r="A249" t="s" s="4">
+        <v>494</v>
+      </c>
+      <c r="B249" t="s" s="5">
+        <v>495</v>
+      </c>
     </row>
     <row r="250" ht="36" customHeight="1">
-      <c r="A250" s="8"/>
-      <c r="B250" s="9"/>
+      <c r="A250" t="s" s="4">
+        <v>496</v>
+      </c>
+      <c r="B250" t="s" s="5">
+        <v>497</v>
+      </c>
     </row>
     <row r="251" ht="36" customHeight="1">
-      <c r="A251" s="8"/>
-      <c r="B251" s="9"/>
+      <c r="A251" t="s" s="4">
+        <v>498</v>
+      </c>
+      <c r="B251" t="s" s="5">
+        <v>499</v>
+      </c>
     </row>
     <row r="252" ht="36" customHeight="1">
-      <c r="A252" s="8"/>
-      <c r="B252" s="9"/>
+      <c r="A252" t="s" s="4">
+        <v>500</v>
+      </c>
+      <c r="B252" t="s" s="5">
+        <v>501</v>
+      </c>
     </row>
     <row r="253" ht="36" customHeight="1">
-      <c r="A253" s="8"/>
-      <c r="B253" s="9"/>
+      <c r="A253" t="s" s="4">
+        <v>502</v>
+      </c>
+      <c r="B253" t="s" s="5">
+        <v>503</v>
+      </c>
     </row>
     <row r="254" ht="36" customHeight="1">
-      <c r="A254" s="8"/>
-      <c r="B254" s="9"/>
+      <c r="A254" t="s" s="4">
+        <v>504</v>
+      </c>
+      <c r="B254" t="s" s="5">
+        <v>505</v>
+      </c>
     </row>
     <row r="255" ht="36" customHeight="1">
-      <c r="A255" s="8"/>
-      <c r="B255" s="9"/>
+      <c r="A255" t="s" s="4">
+        <v>506</v>
+      </c>
+      <c r="B255" t="s" s="5">
+        <v>507</v>
+      </c>
     </row>
     <row r="256" ht="36" customHeight="1">
-      <c r="A256" s="8"/>
-      <c r="B256" s="9"/>
+      <c r="A256" t="s" s="4">
+        <v>508</v>
+      </c>
+      <c r="B256" t="s" s="5">
+        <v>509</v>
+      </c>
     </row>
     <row r="257" ht="36" customHeight="1">
-      <c r="A257" s="8"/>
-      <c r="B257" s="9"/>
+      <c r="A257" t="s" s="4">
+        <v>510</v>
+      </c>
+      <c r="B257" t="s" s="5">
+        <v>511</v>
+      </c>
     </row>
     <row r="258" ht="36" customHeight="1">
-      <c r="A258" s="8"/>
-      <c r="B258" s="9"/>
+      <c r="A258" t="s" s="4">
+        <v>512</v>
+      </c>
+      <c r="B258" t="s" s="5">
+        <v>513</v>
+      </c>
     </row>
     <row r="259" ht="36" customHeight="1">
-      <c r="A259" s="8"/>
-      <c r="B259" s="9"/>
+      <c r="A259" t="s" s="4">
+        <v>514</v>
+      </c>
+      <c r="B259" t="s" s="5">
+        <v>515</v>
+      </c>
     </row>
     <row r="260" ht="36" customHeight="1">
-      <c r="A260" s="8"/>
-      <c r="B260" s="9"/>
+      <c r="A260" t="s" s="4">
+        <v>516</v>
+      </c>
+      <c r="B260" t="s" s="5">
+        <v>517</v>
+      </c>
     </row>
     <row r="261" ht="36" customHeight="1">
-      <c r="A261" s="8"/>
-      <c r="B261" s="9"/>
+      <c r="A261" t="s" s="4">
+        <v>518</v>
+      </c>
+      <c r="B261" t="s" s="5">
+        <v>519</v>
+      </c>
     </row>
     <row r="262" ht="36" customHeight="1">
-      <c r="A262" s="8"/>
-      <c r="B262" s="9"/>
+      <c r="A262" t="s" s="4">
+        <v>520</v>
+      </c>
+      <c r="B262" t="s" s="5">
+        <v>521</v>
+      </c>
     </row>
     <row r="263" ht="36" customHeight="1">
-      <c r="A263" s="8"/>
-      <c r="B263" s="9"/>
+      <c r="A263" t="s" s="4">
+        <v>522</v>
+      </c>
+      <c r="B263" t="s" s="5">
+        <v>523</v>
+      </c>
     </row>
     <row r="264" ht="36" customHeight="1">
-      <c r="A264" s="8"/>
-      <c r="B264" s="9"/>
+      <c r="A264" t="s" s="4">
+        <v>524</v>
+      </c>
+      <c r="B264" t="s" s="5">
+        <v>525</v>
+      </c>
     </row>
     <row r="265" ht="36" customHeight="1">
-      <c r="A265" s="8"/>
-      <c r="B265" s="9"/>
+      <c r="A265" t="s" s="4">
+        <v>526</v>
+      </c>
+      <c r="B265" t="s" s="5">
+        <v>527</v>
+      </c>
     </row>
     <row r="266" ht="36" customHeight="1">
-      <c r="A266" s="8"/>
-      <c r="B266" s="9"/>
+      <c r="A266" t="s" s="4">
+        <v>528</v>
+      </c>
+      <c r="B266" t="s" s="5">
+        <v>529</v>
+      </c>
     </row>
     <row r="267" ht="36" customHeight="1">
-      <c r="A267" s="8"/>
-      <c r="B267" s="9"/>
+      <c r="A267" t="s" s="4">
+        <v>530</v>
+      </c>
+      <c r="B267" t="s" s="5">
+        <v>531</v>
+      </c>
     </row>
     <row r="268" ht="36" customHeight="1">
-      <c r="A268" s="8"/>
-      <c r="B268" s="9"/>
+      <c r="A268" t="s" s="4">
+        <v>532</v>
+      </c>
+      <c r="B268" t="s" s="5">
+        <v>533</v>
+      </c>
     </row>
     <row r="269" ht="36" customHeight="1">
-      <c r="A269" s="8"/>
-      <c r="B269" s="9"/>
+      <c r="A269" t="s" s="4">
+        <v>534</v>
+      </c>
+      <c r="B269" t="s" s="5">
+        <v>535</v>
+      </c>
     </row>
     <row r="270" ht="36" customHeight="1">
-      <c r="A270" s="8"/>
-      <c r="B270" s="9"/>
+      <c r="A270" t="s" s="4">
+        <v>536</v>
+      </c>
+      <c r="B270" t="s" s="5">
+        <v>537</v>
+      </c>
     </row>
     <row r="271" ht="36" customHeight="1">
-      <c r="A271" s="8"/>
-      <c r="B271" s="9"/>
+      <c r="A271" t="s" s="4">
+        <v>538</v>
+      </c>
+      <c r="B271" t="s" s="5">
+        <v>539</v>
+      </c>
     </row>
     <row r="272" ht="36" customHeight="1">
-      <c r="A272" s="8"/>
-      <c r="B272" s="9"/>
+      <c r="A272" t="s" s="4">
+        <v>540</v>
+      </c>
+      <c r="B272" t="s" s="5">
+        <v>541</v>
+      </c>
     </row>
     <row r="273" ht="36" customHeight="1">
-      <c r="A273" s="8"/>
-      <c r="B273" s="9"/>
+      <c r="A273" t="s" s="4">
+        <v>542</v>
+      </c>
+      <c r="B273" t="s" s="5">
+        <v>543</v>
+      </c>
     </row>
     <row r="274" ht="36" customHeight="1">
-      <c r="A274" s="8"/>
-      <c r="B274" s="9"/>
+      <c r="A274" t="s" s="4">
+        <v>544</v>
+      </c>
+      <c r="B274" t="s" s="5">
+        <v>545</v>
+      </c>
     </row>
     <row r="275" ht="36" customHeight="1">
-      <c r="A275" s="8"/>
-      <c r="B275" s="9"/>
+      <c r="A275" t="s" s="4">
+        <v>546</v>
+      </c>
+      <c r="B275" t="s" s="5">
+        <v>547</v>
+      </c>
     </row>
     <row r="276" ht="36" customHeight="1">
-      <c r="A276" s="8"/>
-      <c r="B276" s="9"/>
+      <c r="A276" t="s" s="4">
+        <v>548</v>
+      </c>
+      <c r="B276" t="s" s="5">
+        <v>549</v>
+      </c>
     </row>
     <row r="277" ht="36" customHeight="1">
-      <c r="A277" s="8"/>
-      <c r="B277" s="9"/>
+      <c r="A277" t="s" s="4">
+        <v>550</v>
+      </c>
+      <c r="B277" t="s" s="5">
+        <v>551</v>
+      </c>
     </row>
     <row r="278" ht="36" customHeight="1">
-      <c r="A278" s="8"/>
-      <c r="B278" s="9"/>
+      <c r="A278" t="s" s="4">
+        <v>552</v>
+      </c>
+      <c r="B278" t="s" s="5">
+        <v>553</v>
+      </c>
     </row>
     <row r="279" ht="36" customHeight="1">
-      <c r="A279" s="8"/>
-      <c r="B279" s="9"/>
+      <c r="A279" t="s" s="4">
+        <v>554</v>
+      </c>
+      <c r="B279" t="s" s="5">
+        <v>555</v>
+      </c>
     </row>
     <row r="280" ht="36" customHeight="1">
-      <c r="A280" s="8"/>
-      <c r="B280" s="9"/>
+      <c r="A280" t="s" s="4">
+        <v>556</v>
+      </c>
+      <c r="B280" t="s" s="5">
+        <v>557</v>
+      </c>
     </row>
     <row r="281" ht="36" customHeight="1">
-      <c r="A281" s="8"/>
-      <c r="B281" s="9"/>
+      <c r="A281" t="s" s="4">
+        <v>558</v>
+      </c>
+      <c r="B281" t="s" s="5">
+        <v>559</v>
+      </c>
     </row>
     <row r="282" ht="36" customHeight="1">
-      <c r="A282" s="8"/>
-      <c r="B282" s="9"/>
+      <c r="A282" t="s" s="4">
+        <v>560</v>
+      </c>
+      <c r="B282" t="s" s="5">
+        <v>561</v>
+      </c>
     </row>
     <row r="283" ht="36" customHeight="1">
-      <c r="A283" s="8"/>
-      <c r="B283" s="9"/>
+      <c r="A283" t="s" s="4">
+        <v>562</v>
+      </c>
+      <c r="B283" t="s" s="5">
+        <v>563</v>
+      </c>
     </row>
     <row r="284" ht="36" customHeight="1">
-      <c r="A284" s="8"/>
-      <c r="B284" s="9"/>
+      <c r="A284" t="s" s="4">
+        <v>564</v>
+      </c>
+      <c r="B284" t="s" s="5">
+        <v>565</v>
+      </c>
     </row>
     <row r="285" ht="36" customHeight="1">
-      <c r="A285" s="8"/>
-      <c r="B285" s="9"/>
+      <c r="A285" t="s" s="4">
+        <v>566</v>
+      </c>
+      <c r="B285" t="s" s="5">
+        <v>567</v>
+      </c>
     </row>
     <row r="286" ht="36" customHeight="1">
-      <c r="A286" s="8"/>
-      <c r="B286" s="9"/>
+      <c r="A286" t="s" s="4">
+        <v>568</v>
+      </c>
+      <c r="B286" t="s" s="5">
+        <v>569</v>
+      </c>
     </row>
     <row r="287" ht="36" customHeight="1">
-      <c r="A287" s="8"/>
-      <c r="B287" s="9"/>
+      <c r="A287" t="s" s="4">
+        <v>570</v>
+      </c>
+      <c r="B287" t="s" s="5">
+        <v>571</v>
+      </c>
     </row>
     <row r="288" ht="36" customHeight="1">
-      <c r="A288" s="8"/>
-      <c r="B288" s="9"/>
+      <c r="A288" t="s" s="4">
+        <v>572</v>
+      </c>
+      <c r="B288" t="s" s="5">
+        <v>573</v>
+      </c>
     </row>
     <row r="289" ht="36" customHeight="1">
-      <c r="A289" s="8"/>
-      <c r="B289" s="9"/>
+      <c r="A289" t="s" s="4">
+        <v>574</v>
+      </c>
+      <c r="B289" t="s" s="5">
+        <v>575</v>
+      </c>
     </row>
     <row r="290" ht="36" customHeight="1">
-      <c r="A290" s="8"/>
-      <c r="B290" s="9"/>
+      <c r="A290" t="s" s="4">
+        <v>576</v>
+      </c>
+      <c r="B290" t="s" s="5">
+        <v>577</v>
+      </c>
     </row>
     <row r="291" ht="36" customHeight="1">
-      <c r="A291" s="8"/>
-      <c r="B291" s="9"/>
+      <c r="A291" t="s" s="4">
+        <v>578</v>
+      </c>
+      <c r="B291" t="s" s="5">
+        <v>579</v>
+      </c>
     </row>
     <row r="292" ht="20" customHeight="1">
-      <c r="A292" s="8"/>
-      <c r="B292" s="9"/>
+      <c r="A292" t="s" s="4">
+        <v>580</v>
+      </c>
+      <c r="B292" t="s" s="5">
+        <v>581</v>
+      </c>
     </row>
     <row r="293" ht="36" customHeight="1">
-      <c r="A293" s="8"/>
-      <c r="B293" s="9"/>
+      <c r="A293" t="s" s="4">
+        <v>582</v>
+      </c>
+      <c r="B293" t="s" s="5">
+        <v>583</v>
+      </c>
     </row>
     <row r="294" ht="36" customHeight="1">
-      <c r="A294" s="8"/>
-      <c r="B294" s="9"/>
+      <c r="A294" t="s" s="4">
+        <v>584</v>
+      </c>
+      <c r="B294" t="s" s="5">
+        <v>585</v>
+      </c>
     </row>
     <row r="295" ht="44.75" customHeight="1">
-      <c r="A295" s="8"/>
-      <c r="B295" s="9"/>
+      <c r="A295" t="s" s="4">
+        <v>586</v>
+      </c>
+      <c r="B295" t="s" s="5">
+        <v>587</v>
+      </c>
     </row>
     <row r="296" ht="44.75" customHeight="1">
-      <c r="A296" s="8"/>
-      <c r="B296" s="9"/>
+      <c r="A296" t="s" s="4">
+        <v>588</v>
+      </c>
+      <c r="B296" t="s" s="5">
+        <v>589</v>
+      </c>
     </row>
     <row r="297" ht="44.75" customHeight="1">
-      <c r="A297" s="8"/>
-      <c r="B297" s="9"/>
+      <c r="A297" t="s" s="4">
+        <v>590</v>
+      </c>
+      <c r="B297" t="s" s="5">
+        <v>591</v>
+      </c>
     </row>
     <row r="298" ht="44.75" customHeight="1">
-      <c r="A298" s="8"/>
-      <c r="B298" s="9"/>
+      <c r="A298" t="s" s="4">
+        <v>592</v>
+      </c>
+      <c r="B298" t="s" s="5">
+        <v>593</v>
+      </c>
     </row>
     <row r="299" ht="44.75" customHeight="1">
-      <c r="A299" s="8"/>
-      <c r="B299" s="9"/>
+      <c r="A299" t="s" s="4">
+        <v>594</v>
+      </c>
+      <c r="B299" t="s" s="5">
+        <v>595</v>
+      </c>
     </row>
     <row r="300" ht="44.75" customHeight="1">
-      <c r="A300" s="8"/>
-      <c r="B300" s="9"/>
+      <c r="A300" t="s" s="4">
+        <v>596</v>
+      </c>
+      <c r="B300" t="s" s="5">
+        <v>597</v>
+      </c>
     </row>
     <row r="301" ht="44.75" customHeight="1">
-      <c r="A301" s="8"/>
-      <c r="B301" s="9"/>
+      <c r="A301" t="s" s="4">
+        <v>598</v>
+      </c>
+      <c r="B301" t="s" s="5">
+        <v>599</v>
+      </c>
     </row>
     <row r="302" ht="44.75" customHeight="1">
-      <c r="A302" s="8"/>
-      <c r="B302" s="9"/>
+      <c r="A302" t="s" s="4">
+        <v>600</v>
+      </c>
+      <c r="B302" t="s" s="5">
+        <v>601</v>
+      </c>
     </row>
     <row r="303" ht="44.75" customHeight="1">
-      <c r="A303" s="8"/>
-      <c r="B303" s="9"/>
+      <c r="A303" t="s" s="4">
+        <v>602</v>
+      </c>
+      <c r="B303" t="s" s="5">
+        <v>603</v>
+      </c>
     </row>
     <row r="304" ht="40.25" customHeight="1">
-      <c r="A304" s="8"/>
-      <c r="B304" s="9"/>
+      <c r="A304" t="s" s="4">
+        <v>604</v>
+      </c>
+      <c r="B304" t="s" s="5">
+        <v>605</v>
+      </c>
     </row>
     <row r="305" ht="44.75" customHeight="1">
-      <c r="A305" s="8"/>
-      <c r="B305" s="9"/>
+      <c r="A305" t="s" s="4">
+        <v>606</v>
+      </c>
+      <c r="B305" t="s" s="5">
+        <v>607</v>
+      </c>
     </row>
     <row r="306" ht="44.75" customHeight="1">
-      <c r="A306" s="8"/>
-      <c r="B306" s="9"/>
+      <c r="A306" t="s" s="4">
+        <v>608</v>
+      </c>
+      <c r="B306" t="s" s="5">
+        <v>609</v>
+      </c>
     </row>
     <row r="307" ht="44.75" customHeight="1">
-      <c r="A307" s="8"/>
-      <c r="B307" s="9"/>
+      <c r="A307" t="s" s="4">
+        <v>610</v>
+      </c>
+      <c r="B307" t="s" s="5">
+        <v>611</v>
+      </c>
     </row>
     <row r="308" ht="40.25" customHeight="1">
-      <c r="A308" s="8"/>
-      <c r="B308" s="9"/>
+      <c r="A308" t="s" s="4">
+        <v>612</v>
+      </c>
+      <c r="B308" t="s" s="5">
+        <v>613</v>
+      </c>
     </row>
     <row r="309" ht="44.75" customHeight="1">
-      <c r="A309" s="8"/>
-      <c r="B309" s="9"/>
+      <c r="A309" t="s" s="4">
+        <v>614</v>
+      </c>
+      <c r="B309" t="s" s="5">
+        <v>615</v>
+      </c>
     </row>
     <row r="310" ht="44.75" customHeight="1">
-      <c r="A310" s="8"/>
-      <c r="B310" s="9"/>
+      <c r="A310" t="s" s="4">
+        <v>616</v>
+      </c>
+      <c r="B310" t="s" s="5">
+        <v>617</v>
+      </c>
     </row>
     <row r="311" ht="44.75" customHeight="1">
-      <c r="A311" s="8"/>
-      <c r="B311" s="9"/>
+      <c r="A311" t="s" s="4">
+        <v>618</v>
+      </c>
+      <c r="B311" t="s" s="5">
+        <v>619</v>
+      </c>
     </row>
     <row r="312" ht="44.75" customHeight="1">
-      <c r="A312" s="8"/>
-      <c r="B312" s="9"/>
+      <c r="A312" t="s" s="4">
+        <v>620</v>
+      </c>
+      <c r="B312" t="s" s="5">
+        <v>621</v>
+      </c>
     </row>
     <row r="313" ht="44.75" customHeight="1">
-      <c r="A313" s="8"/>
-      <c r="B313" s="9"/>
+      <c r="A313" t="s" s="4">
+        <v>622</v>
+      </c>
+      <c r="B313" t="s" s="5">
+        <v>623</v>
+      </c>
     </row>
     <row r="314" ht="44.75" customHeight="1">
-      <c r="A314" s="8"/>
-      <c r="B314" s="9"/>
+      <c r="A314" t="s" s="4">
+        <v>624</v>
+      </c>
+      <c r="B314" t="s" s="5">
+        <v>625</v>
+      </c>
     </row>
     <row r="315" ht="44.75" customHeight="1">
-      <c r="A315" s="8"/>
-      <c r="B315" s="9"/>
+      <c r="A315" t="s" s="4">
+        <v>626</v>
+      </c>
+      <c r="B315" t="s" s="5">
+        <v>627</v>
+      </c>
     </row>
     <row r="316" ht="44.75" customHeight="1">
-      <c r="A316" s="8"/>
-      <c r="B316" s="9"/>
+      <c r="A316" t="s" s="4">
+        <v>628</v>
+      </c>
+      <c r="B316" t="s" s="5">
+        <v>629</v>
+      </c>
     </row>
     <row r="317" ht="44.75" customHeight="1">
-      <c r="A317" s="8"/>
-      <c r="B317" s="9"/>
+      <c r="A317" t="s" s="4">
+        <v>630</v>
+      </c>
+      <c r="B317" t="s" s="5">
+        <v>631</v>
+      </c>
     </row>
     <row r="318" ht="44.75" customHeight="1">
-      <c r="A318" s="8"/>
-      <c r="B318" s="9"/>
+      <c r="A318" t="s" s="4">
+        <v>632</v>
+      </c>
+      <c r="B318" t="s" s="5">
+        <v>633</v>
+      </c>
     </row>
     <row r="319" ht="40.25" customHeight="1">
-      <c r="A319" s="8"/>
-      <c r="B319" s="9"/>
+      <c r="A319" t="s" s="4">
+        <v>634</v>
+      </c>
+      <c r="B319" t="s" s="5">
+        <v>635</v>
+      </c>
     </row>
     <row r="320" ht="44.75" customHeight="1">
-      <c r="A320" s="8"/>
-      <c r="B320" s="9"/>
+      <c r="A320" t="s" s="4">
+        <v>636</v>
+      </c>
+      <c r="B320" t="s" s="5">
+        <v>637</v>
+      </c>
     </row>
     <row r="321" ht="44.75" customHeight="1">
-      <c r="A321" s="8"/>
-      <c r="B321" s="9"/>
+      <c r="A321" t="s" s="4">
+        <v>638</v>
+      </c>
+      <c r="B321" t="s" s="5">
+        <v>639</v>
+      </c>
     </row>
     <row r="322" ht="40.25" customHeight="1">
-      <c r="A322" s="8"/>
-      <c r="B322" s="9"/>
+      <c r="A322" t="s" s="4">
+        <v>640</v>
+      </c>
+      <c r="B322" t="s" s="5">
+        <v>641</v>
+      </c>
     </row>
     <row r="323" ht="40.25" customHeight="1">
-      <c r="A323" s="8"/>
-      <c r="B323" s="9"/>
+      <c r="A323" t="s" s="4">
+        <v>642</v>
+      </c>
+      <c r="B323" t="s" s="5">
+        <v>643</v>
+      </c>
     </row>
     <row r="324" ht="44.75" customHeight="1">
-      <c r="A324" s="8"/>
-      <c r="B324" s="9"/>
+      <c r="A324" t="s" s="4">
+        <v>644</v>
+      </c>
+      <c r="B324" t="s" s="5">
+        <v>645</v>
+      </c>
     </row>
     <row r="325" ht="44.75" customHeight="1">
-      <c r="A325" s="8"/>
-      <c r="B325" s="9"/>
+      <c r="A325" t="s" s="4">
+        <v>646</v>
+      </c>
+      <c r="B325" t="s" s="5">
+        <v>647</v>
+      </c>
     </row>
     <row r="326" ht="44.75" customHeight="1">
-      <c r="A326" s="8"/>
-      <c r="B326" s="9"/>
+      <c r="A326" t="s" s="4">
+        <v>648</v>
+      </c>
+      <c r="B326" t="s" s="5">
+        <v>649</v>
+      </c>
     </row>
     <row r="327" ht="44.75" customHeight="1">
-      <c r="A327" s="8"/>
-      <c r="B327" s="9"/>
+      <c r="A327" t="s" s="4">
+        <v>650</v>
+      </c>
+      <c r="B327" t="s" s="5">
+        <v>651</v>
+      </c>
     </row>
     <row r="328" ht="44.75" customHeight="1">
-      <c r="A328" s="8"/>
-      <c r="B328" s="9"/>
+      <c r="A328" t="s" s="4">
+        <v>652</v>
+      </c>
+      <c r="B328" t="s" s="5">
+        <v>653</v>
+      </c>
     </row>
     <row r="329" ht="44.75" customHeight="1">
-      <c r="A329" s="8"/>
-      <c r="B329" s="9"/>
+      <c r="A329" t="s" s="4">
+        <v>654</v>
+      </c>
+      <c r="B329" t="s" s="5">
+        <v>655</v>
+      </c>
     </row>
     <row r="330" ht="44.75" customHeight="1">
-      <c r="A330" s="8"/>
-      <c r="B330" s="9"/>
+      <c r="A330" t="s" s="4">
+        <v>656</v>
+      </c>
+      <c r="B330" t="s" s="5">
+        <v>657</v>
+      </c>
     </row>
     <row r="331" ht="40.25" customHeight="1">
-      <c r="A331" s="8"/>
-      <c r="B331" s="9"/>
+      <c r="A331" t="s" s="4">
+        <v>658</v>
+      </c>
+      <c r="B331" t="s" s="5">
+        <v>659</v>
+      </c>
     </row>
     <row r="332" ht="44.75" customHeight="1">
-      <c r="A332" s="8"/>
-      <c r="B332" s="9"/>
+      <c r="A332" t="s" s="4">
+        <v>660</v>
+      </c>
+      <c r="B332" t="s" s="5">
+        <v>661</v>
+      </c>
     </row>
     <row r="333" ht="44.75" customHeight="1">
-      <c r="A333" s="8"/>
-      <c r="B333" s="9"/>
+      <c r="A333" t="s" s="4">
+        <v>662</v>
+      </c>
+      <c r="B333" t="s" s="5">
+        <v>663</v>
+      </c>
     </row>
     <row r="334" ht="44.75" customHeight="1">
-      <c r="A334" s="8"/>
-      <c r="B334" s="9"/>
+      <c r="A334" t="s" s="4">
+        <v>664</v>
+      </c>
+      <c r="B334" t="s" s="5">
+        <v>665</v>
+      </c>
     </row>
     <row r="335" ht="44.75" customHeight="1">
-      <c r="A335" s="8"/>
-      <c r="B335" s="9"/>
+      <c r="A335" t="s" s="4">
+        <v>666</v>
+      </c>
+      <c r="B335" t="s" s="5">
+        <v>667</v>
+      </c>
     </row>
     <row r="336" ht="44.75" customHeight="1">
-      <c r="A336" s="8"/>
-      <c r="B336" s="9"/>
+      <c r="A336" t="s" s="4">
+        <v>668</v>
+      </c>
+      <c r="B336" t="s" s="5">
+        <v>669</v>
+      </c>
     </row>
     <row r="337" ht="40.25" customHeight="1">
-      <c r="A337" s="8"/>
-      <c r="B337" s="9"/>
+      <c r="A337" t="s" s="4">
+        <v>670</v>
+      </c>
+      <c r="B337" t="s" s="5">
+        <v>671</v>
+      </c>
     </row>
     <row r="338" ht="44.75" customHeight="1">
-      <c r="A338" s="8"/>
-      <c r="B338" s="9"/>
+      <c r="A338" t="s" s="4">
+        <v>672</v>
+      </c>
+      <c r="B338" t="s" s="5">
+        <v>673</v>
+      </c>
     </row>
     <row r="339" ht="40.25" customHeight="1">
-      <c r="A339" s="8"/>
-      <c r="B339" s="9"/>
+      <c r="A339" t="s" s="4">
+        <v>674</v>
+      </c>
+      <c r="B339" t="s" s="5">
+        <v>675</v>
+      </c>
     </row>
     <row r="340" ht="44.75" customHeight="1">
-      <c r="A340" s="8"/>
-      <c r="B340" s="9"/>
+      <c r="A340" t="s" s="4">
+        <v>676</v>
+      </c>
+      <c r="B340" t="s" s="5">
+        <v>677</v>
+      </c>
     </row>
     <row r="341" ht="67.25" customHeight="1">
-      <c r="A341" s="8"/>
-      <c r="B341" s="9"/>
+      <c r="A341" t="s" s="4">
+        <v>678</v>
+      </c>
+      <c r="B341" t="s" s="5">
+        <v>679</v>
+      </c>
     </row>
     <row r="342" ht="40.25" customHeight="1">
-      <c r="A342" s="8"/>
-      <c r="B342" s="9"/>
+      <c r="A342" t="s" s="4">
+        <v>680</v>
+      </c>
+      <c r="B342" t="s" s="5">
+        <v>681</v>
+      </c>
     </row>
     <row r="343" ht="40.25" customHeight="1">
-      <c r="A343" s="8"/>
-      <c r="B343" s="9"/>
+      <c r="A343" t="s" s="4">
+        <v>682</v>
+      </c>
+      <c r="B343" t="s" s="5">
+        <v>683</v>
+      </c>
     </row>
     <row r="344" ht="40.25" customHeight="1">
-      <c r="A344" s="8"/>
-      <c r="B344" s="9"/>
+      <c r="A344" t="s" s="4">
+        <v>684</v>
+      </c>
+      <c r="B344" t="s" s="5">
+        <v>685</v>
+      </c>
     </row>
     <row r="345" ht="40.25" customHeight="1">
-      <c r="A345" s="8"/>
-      <c r="B345" s="9"/>
+      <c r="A345" t="s" s="4">
+        <v>686</v>
+      </c>
+      <c r="B345" t="s" s="5">
+        <v>687</v>
+      </c>
     </row>
     <row r="346" ht="40.25" customHeight="1">
-      <c r="A346" s="8"/>
-      <c r="B346" s="9"/>
+      <c r="A346" t="s" s="4">
+        <v>688</v>
+      </c>
+      <c r="B346" t="s" s="5">
+        <v>689</v>
+      </c>
     </row>
     <row r="347" ht="44.75" customHeight="1">
-      <c r="A347" s="8"/>
-      <c r="B347" s="9"/>
+      <c r="A347" t="s" s="4">
+        <v>690</v>
+      </c>
+      <c r="B347" t="s" s="5">
+        <v>691</v>
+      </c>
     </row>
     <row r="348" ht="36" customHeight="1">
-      <c r="A348" s="8"/>
-      <c r="B348" s="9"/>
+      <c r="A348" t="s" s="4">
+        <v>692</v>
+      </c>
+      <c r="B348" t="s" s="5">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="349" ht="36" customHeight="1">
+      <c r="A349" t="s" s="4">
+        <v>694</v>
+      </c>
+      <c r="B349" t="s" s="5">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="350" ht="36" customHeight="1">
+      <c r="A350" t="s" s="4">
+        <v>696</v>
+      </c>
+      <c r="B350" t="s" s="5">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="351" ht="36" customHeight="1">
+      <c r="A351" t="s" s="4">
+        <v>698</v>
+      </c>
+      <c r="B351" t="s" s="5">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="352" ht="36" customHeight="1">
+      <c r="A352" t="s" s="4">
+        <v>700</v>
+      </c>
+      <c r="B352" t="s" s="5">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="353" ht="36" customHeight="1">
+      <c r="A353" t="s" s="4">
+        <v>702</v>
+      </c>
+      <c r="B353" t="s" s="5">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="354" ht="36" customHeight="1">
+      <c r="A354" t="s" s="4">
+        <v>704</v>
+      </c>
+      <c r="B354" t="s" s="5">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="355" ht="36" customHeight="1">
+      <c r="A355" t="s" s="4">
+        <v>706</v>
+      </c>
+      <c r="B355" t="s" s="5">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="356" ht="36" customHeight="1">
+      <c r="A356" t="s" s="4">
+        <v>708</v>
+      </c>
+      <c r="B356" t="s" s="5">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="357" ht="36" customHeight="1">
+      <c r="A357" t="s" s="4">
+        <v>710</v>
+      </c>
+      <c r="B357" t="s" s="5">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="358" ht="36" customHeight="1">
+      <c r="A358" t="s" s="4">
+        <v>712</v>
+      </c>
+      <c r="B358" t="s" s="5">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="359" ht="36" customHeight="1">
+      <c r="A359" t="s" s="4">
+        <v>714</v>
+      </c>
+      <c r="B359" t="s" s="5">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="360" ht="36" customHeight="1">
+      <c r="A360" t="s" s="4">
+        <v>716</v>
+      </c>
+      <c r="B360" t="s" s="5">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="361" ht="36" customHeight="1">
+      <c r="A361" t="s" s="4">
+        <v>718</v>
+      </c>
+      <c r="B361" t="s" s="5">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="362" ht="36" customHeight="1">
+      <c r="A362" t="s" s="4">
+        <v>720</v>
+      </c>
+      <c r="B362" t="s" s="5">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="363" ht="36" customHeight="1">
+      <c r="A363" t="s" s="4">
+        <v>722</v>
+      </c>
+      <c r="B363" t="s" s="5">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="364" ht="36" customHeight="1">
+      <c r="A364" t="s" s="4">
+        <v>724</v>
+      </c>
+      <c r="B364" t="s" s="5">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="365" ht="36" customHeight="1">
+      <c r="A365" t="s" s="4">
+        <v>726</v>
+      </c>
+      <c r="B365" t="s" s="5">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="366" ht="36" customHeight="1">
+      <c r="A366" t="s" s="4">
+        <v>728</v>
+      </c>
+      <c r="B366" t="s" s="5">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="367" ht="36" customHeight="1">
+      <c r="A367" t="s" s="4">
+        <v>730</v>
+      </c>
+      <c r="B367" t="s" s="5">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="368" ht="36" customHeight="1">
+      <c r="A368" t="s" s="4">
+        <v>732</v>
+      </c>
+      <c r="B368" t="s" s="5">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="369" ht="36" customHeight="1">
+      <c r="A369" t="s" s="4">
+        <v>734</v>
+      </c>
+      <c r="B369" t="s" s="5">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="370" ht="36" customHeight="1">
+      <c r="A370" t="s" s="4">
+        <v>736</v>
+      </c>
+      <c r="B370" t="s" s="5">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="371" ht="36" customHeight="1">
+      <c r="A371" t="s" s="4">
+        <v>738</v>
+      </c>
+      <c r="B371" t="s" s="5">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="372" ht="36" customHeight="1">
+      <c r="A372" t="s" s="4">
+        <v>740</v>
+      </c>
+      <c r="B372" t="s" s="5">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="373" ht="36" customHeight="1">
+      <c r="A373" t="s" s="4">
+        <v>742</v>
+      </c>
+      <c r="B373" t="s" s="5">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="374" ht="36" customHeight="1">
+      <c r="A374" t="s" s="4">
+        <v>744</v>
+      </c>
+      <c r="B374" t="s" s="5">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="375" ht="36" customHeight="1">
+      <c r="A375" t="s" s="4">
+        <v>746</v>
+      </c>
+      <c r="B375" t="s" s="5">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="376" ht="36" customHeight="1">
+      <c r="A376" t="s" s="4">
+        <v>748</v>
+      </c>
+      <c r="B376" t="s" s="5">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="377" ht="36" customHeight="1">
+      <c r="A377" t="s" s="4">
+        <v>750</v>
+      </c>
+      <c r="B377" t="s" s="5">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="378" ht="36" customHeight="1">
+      <c r="A378" t="s" s="4">
+        <v>752</v>
+      </c>
+      <c r="B378" t="s" s="5">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="379" ht="36" customHeight="1">
+      <c r="A379" t="s" s="4">
+        <v>754</v>
+      </c>
+      <c r="B379" t="s" s="5">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="380" ht="36" customHeight="1">
+      <c r="A380" t="s" s="4">
+        <v>756</v>
+      </c>
+      <c r="B380" t="s" s="5">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="381" ht="36" customHeight="1">
+      <c r="A381" t="s" s="4">
+        <v>758</v>
+      </c>
+      <c r="B381" t="s" s="5">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="382" ht="36" customHeight="1">
+      <c r="A382" t="s" s="4">
+        <v>760</v>
+      </c>
+      <c r="B382" t="s" s="5">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="383" ht="36" customHeight="1">
+      <c r="A383" t="s" s="4">
+        <v>762</v>
+      </c>
+      <c r="B383" t="s" s="5">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="384" ht="36" customHeight="1">
+      <c r="A384" t="s" s="4">
+        <v>764</v>
+      </c>
+      <c r="B384" t="s" s="5">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="385" ht="36" customHeight="1">
+      <c r="A385" t="s" s="4">
+        <v>766</v>
+      </c>
+      <c r="B385" t="s" s="5">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="386" ht="36" customHeight="1">
+      <c r="A386" t="s" s="4">
+        <v>768</v>
+      </c>
+      <c r="B386" t="s" s="5">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="387" ht="36" customHeight="1">
+      <c r="A387" t="s" s="4">
+        <v>770</v>
+      </c>
+      <c r="B387" t="s" s="5">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="388" ht="36" customHeight="1">
+      <c r="A388" t="s" s="4">
+        <v>772</v>
+      </c>
+      <c r="B388" t="s" s="5">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="389" ht="36" customHeight="1">
+      <c r="A389" t="s" s="4">
+        <v>774</v>
+      </c>
+      <c r="B389" t="s" s="5">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="390" ht="36" customHeight="1">
+      <c r="A390" t="s" s="4">
+        <v>776</v>
+      </c>
+      <c r="B390" t="s" s="5">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="391" ht="36" customHeight="1">
+      <c r="A391" t="s" s="4">
+        <v>778</v>
+      </c>
+      <c r="B391" t="s" s="5">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="392" ht="36" customHeight="1">
+      <c r="A392" t="s" s="4">
+        <v>780</v>
+      </c>
+      <c r="B392" t="s" s="5">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="393" ht="36" customHeight="1">
+      <c r="A393" t="s" s="4">
+        <v>782</v>
+      </c>
+      <c r="B393" t="s" s="5">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="394" ht="36" customHeight="1">
+      <c r="A394" t="s" s="4">
+        <v>784</v>
+      </c>
+      <c r="B394" t="s" s="5">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="395" ht="36" customHeight="1">
+      <c r="A395" t="s" s="4">
+        <v>786</v>
+      </c>
+      <c r="B395" t="s" s="5">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="396" ht="36" customHeight="1">
+      <c r="A396" t="s" s="4">
+        <v>788</v>
+      </c>
+      <c r="B396" t="s" s="5">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="397" ht="36" customHeight="1">
+      <c r="A397" t="s" s="4">
+        <v>790</v>
+      </c>
+      <c r="B397" t="s" s="5">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="398" ht="36" customHeight="1">
+      <c r="A398" t="s" s="4">
+        <v>792</v>
+      </c>
+      <c r="B398" t="s" s="5">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="399" ht="36" customHeight="1">
+      <c r="A399" t="s" s="4">
+        <v>794</v>
+      </c>
+      <c r="B399" t="s" s="5">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="400" ht="36" customHeight="1">
+      <c r="A400" t="s" s="4">
+        <v>796</v>
+      </c>
+      <c r="B400" t="s" s="5">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="401" ht="36" customHeight="1">
+      <c r="A401" t="s" s="4">
+        <v>798</v>
+      </c>
+      <c r="B401" t="s" s="5">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="402" ht="36" customHeight="1">
+      <c r="A402" t="s" s="4">
+        <v>800</v>
+      </c>
+      <c r="B402" t="s" s="5">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="403" ht="36" customHeight="1">
+      <c r="A403" t="s" s="4">
+        <v>802</v>
+      </c>
+      <c r="B403" t="s" s="5">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="404" ht="36" customHeight="1">
+      <c r="A404" t="s" s="4">
+        <v>804</v>
+      </c>
+      <c r="B404" t="s" s="5">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="405" ht="36" customHeight="1">
+      <c r="A405" t="s" s="4">
+        <v>806</v>
+      </c>
+      <c r="B405" t="s" s="5">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="406" ht="36" customHeight="1">
+      <c r="A406" t="s" s="4">
+        <v>808</v>
+      </c>
+      <c r="B406" t="s" s="5">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="407" ht="36" customHeight="1">
+      <c r="A407" t="s" s="4">
+        <v>810</v>
+      </c>
+      <c r="B407" t="s" s="5">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="408" ht="36" customHeight="1">
+      <c r="A408" t="s" s="4">
+        <v>812</v>
+      </c>
+      <c r="B408" t="s" s="5">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="409" ht="36" customHeight="1">
+      <c r="A409" t="s" s="4">
+        <v>814</v>
+      </c>
+      <c r="B409" t="s" s="5">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="410" ht="36" customHeight="1">
+      <c r="A410" t="s" s="4">
+        <v>816</v>
+      </c>
+      <c r="B410" t="s" s="5">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="411" ht="36" customHeight="1">
+      <c r="A411" t="s" s="4">
+        <v>818</v>
+      </c>
+      <c r="B411" t="s" s="5">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="412" ht="36" customHeight="1">
+      <c r="A412" t="s" s="4">
+        <v>820</v>
+      </c>
+      <c r="B412" t="s" s="5">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="413" ht="36" customHeight="1">
+      <c r="A413" t="s" s="4">
+        <v>822</v>
+      </c>
+      <c r="B413" t="s" s="5">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="414" ht="36" customHeight="1">
+      <c r="A414" t="s" s="4">
+        <v>824</v>
+      </c>
+      <c r="B414" t="s" s="5">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="415" ht="36" customHeight="1">
+      <c r="A415" t="s" s="4">
+        <v>826</v>
+      </c>
+      <c r="B415" t="s" s="5">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="416" ht="36" customHeight="1">
+      <c r="A416" t="s" s="4">
+        <v>828</v>
+      </c>
+      <c r="B416" t="s" s="5">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="417" ht="36" customHeight="1">
+      <c r="A417" t="s" s="4">
+        <v>830</v>
+      </c>
+      <c r="B417" t="s" s="5">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="418" ht="36" customHeight="1">
+      <c r="A418" t="s" s="4">
+        <v>832</v>
+      </c>
+      <c r="B418" t="s" s="5">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="419" ht="36" customHeight="1">
+      <c r="A419" t="s" s="4">
+        <v>834</v>
+      </c>
+      <c r="B419" t="s" s="5">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="420" ht="36" customHeight="1">
+      <c r="A420" t="s" s="4">
+        <v>836</v>
+      </c>
+      <c r="B420" t="s" s="5">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="421" ht="36" customHeight="1">
+      <c r="A421" t="s" s="4">
+        <v>838</v>
+      </c>
+      <c r="B421" t="s" s="5">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="422" ht="36" customHeight="1">
+      <c r="A422" t="s" s="4">
+        <v>840</v>
+      </c>
+      <c r="B422" t="s" s="5">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="423" ht="36" customHeight="1">
+      <c r="A423" t="s" s="4">
+        <v>842</v>
+      </c>
+      <c r="B423" t="s" s="5">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="424" ht="36" customHeight="1">
+      <c r="A424" t="s" s="4">
+        <v>844</v>
+      </c>
+      <c r="B424" t="s" s="5">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="425" ht="36" customHeight="1">
+      <c r="A425" t="s" s="4">
+        <v>846</v>
+      </c>
+      <c r="B425" t="s" s="5">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="426" ht="36" customHeight="1">
+      <c r="A426" t="s" s="4">
+        <v>848</v>
+      </c>
+      <c r="B426" t="s" s="5">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="427" ht="36" customHeight="1">
+      <c r="A427" t="s" s="4">
+        <v>850</v>
+      </c>
+      <c r="B427" t="s" s="5">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="428" ht="36" customHeight="1">
+      <c r="A428" t="s" s="4">
+        <v>852</v>
+      </c>
+      <c r="B428" t="s" s="5">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="429" ht="36" customHeight="1">
+      <c r="A429" t="s" s="4">
+        <v>854</v>
+      </c>
+      <c r="B429" t="s" s="5">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="430" ht="36" customHeight="1">
+      <c r="A430" t="s" s="4">
+        <v>856</v>
+      </c>
+      <c r="B430" t="s" s="5">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="431" ht="36" customHeight="1">
+      <c r="A431" t="s" s="4">
+        <v>858</v>
+      </c>
+      <c r="B431" t="s" s="5">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="432" ht="36" customHeight="1">
+      <c r="A432" t="s" s="4">
+        <v>860</v>
+      </c>
+      <c r="B432" t="s" s="5">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="433" ht="36" customHeight="1">
+      <c r="A433" t="s" s="4">
+        <v>862</v>
+      </c>
+      <c r="B433" t="s" s="5">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="434" ht="36" customHeight="1">
+      <c r="A434" t="s" s="4">
+        <v>864</v>
+      </c>
+      <c r="B434" t="s" s="5">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="435" ht="36" customHeight="1">
+      <c r="A435" t="s" s="4">
+        <v>866</v>
+      </c>
+      <c r="B435" t="s" s="5">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="436" ht="36" customHeight="1">
+      <c r="A436" t="s" s="4">
+        <v>868</v>
+      </c>
+      <c r="B436" t="s" s="5">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="437" ht="36" customHeight="1">
+      <c r="A437" t="s" s="4">
+        <v>870</v>
+      </c>
+      <c r="B437" t="s" s="5">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="438" ht="36" customHeight="1">
+      <c r="A438" t="s" s="4">
+        <v>872</v>
+      </c>
+      <c r="B438" t="s" s="5">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="439" ht="36" customHeight="1">
+      <c r="A439" t="s" s="4">
+        <v>874</v>
+      </c>
+      <c r="B439" t="s" s="5">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="440" ht="36" customHeight="1">
+      <c r="A440" t="s" s="4">
+        <v>876</v>
+      </c>
+      <c r="B440" t="s" s="5">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="441" ht="36" customHeight="1">
+      <c r="A441" t="s" s="4">
+        <v>878</v>
+      </c>
+      <c r="B441" t="s" s="5">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="442" ht="36" customHeight="1">
+      <c r="A442" t="s" s="4">
+        <v>880</v>
+      </c>
+      <c r="B442" t="s" s="5">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="443" ht="36" customHeight="1">
+      <c r="A443" t="s" s="4">
+        <v>882</v>
+      </c>
+      <c r="B443" t="s" s="5">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="444" ht="36" customHeight="1">
+      <c r="A444" t="s" s="4">
+        <v>884</v>
+      </c>
+      <c r="B444" t="s" s="5">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="445" ht="36" customHeight="1">
+      <c r="A445" t="s" s="4">
+        <v>886</v>
+      </c>
+      <c r="B445" t="s" s="5">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="446" ht="36" customHeight="1">
+      <c r="A446" t="s" s="4">
+        <v>888</v>
+      </c>
+      <c r="B446" t="s" s="5">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="447" ht="36" customHeight="1">
+      <c r="A447" t="s" s="4">
+        <v>890</v>
+      </c>
+      <c r="B447" t="s" s="5">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="448" ht="36" customHeight="1">
+      <c r="A448" t="s" s="4">
+        <v>892</v>
+      </c>
+      <c r="B448" t="s" s="5">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="449" ht="36" customHeight="1">
+      <c r="A449" t="s" s="4">
+        <v>894</v>
+      </c>
+      <c r="B449" t="s" s="5">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="450" ht="36" customHeight="1">
+      <c r="A450" t="s" s="4">
+        <v>896</v>
+      </c>
+      <c r="B450" t="s" s="5">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="451" ht="36" customHeight="1">
+      <c r="A451" t="s" s="4">
+        <v>898</v>
+      </c>
+      <c r="B451" t="s" s="5">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="452" ht="36" customHeight="1">
+      <c r="A452" t="s" s="4">
+        <v>900</v>
+      </c>
+      <c r="B452" t="s" s="5">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="453" ht="36" customHeight="1">
+      <c r="A453" t="s" s="4">
+        <v>902</v>
+      </c>
+      <c r="B453" t="s" s="5">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="454" ht="36" customHeight="1">
+      <c r="A454" t="s" s="4">
+        <v>904</v>
+      </c>
+      <c r="B454" t="s" s="5">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="455" ht="36" customHeight="1">
+      <c r="A455" t="s" s="4">
+        <v>906</v>
+      </c>
+      <c r="B455" t="s" s="5">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="456" ht="36" customHeight="1">
+      <c r="A456" t="s" s="4">
+        <v>908</v>
+      </c>
+      <c r="B456" t="s" s="5">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="457" ht="36" customHeight="1">
+      <c r="A457" t="s" s="4">
+        <v>910</v>
+      </c>
+      <c r="B457" t="s" s="5">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="458" ht="36" customHeight="1">
+      <c r="A458" t="s" s="4">
+        <v>912</v>
+      </c>
+      <c r="B458" t="s" s="5">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="459" ht="36" customHeight="1">
+      <c r="A459" t="s" s="4">
+        <v>914</v>
+      </c>
+      <c r="B459" t="s" s="5">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="460" ht="36" customHeight="1">
+      <c r="A460" t="s" s="4">
+        <v>916</v>
+      </c>
+      <c r="B460" t="s" s="5">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="461" ht="36" customHeight="1">
+      <c r="A461" t="s" s="4">
+        <v>918</v>
+      </c>
+      <c r="B461" t="s" s="5">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="462" ht="36" customHeight="1">
+      <c r="A462" t="s" s="4">
+        <v>920</v>
+      </c>
+      <c r="B462" t="s" s="5">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="463" ht="36" customHeight="1">
+      <c r="A463" t="s" s="4">
+        <v>922</v>
+      </c>
+      <c r="B463" t="s" s="5">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="464" ht="36" customHeight="1">
+      <c r="A464" t="s" s="4">
+        <v>924</v>
+      </c>
+      <c r="B464" t="s" s="5">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="465" ht="36" customHeight="1">
+      <c r="A465" t="s" s="4">
+        <v>926</v>
+      </c>
+      <c r="B465" t="s" s="5">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="466" ht="36" customHeight="1">
+      <c r="A466" t="s" s="4">
+        <v>928</v>
+      </c>
+      <c r="B466" t="s" s="5">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="467" ht="36" customHeight="1">
+      <c r="A467" t="s" s="4">
+        <v>930</v>
+      </c>
+      <c r="B467" t="s" s="5">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="468" ht="36" customHeight="1">
+      <c r="A468" t="s" s="4">
+        <v>932</v>
+      </c>
+      <c r="B468" t="s" s="5">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="469" ht="36" customHeight="1">
+      <c r="A469" t="s" s="4">
+        <v>934</v>
+      </c>
+      <c r="B469" t="s" s="5">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="470" ht="36" customHeight="1">
+      <c r="A470" t="s" s="4">
+        <v>936</v>
+      </c>
+      <c r="B470" t="s" s="5">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="471" ht="36" customHeight="1">
+      <c r="A471" t="s" s="4">
+        <v>938</v>
+      </c>
+      <c r="B471" t="s" s="5">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="472" ht="36" customHeight="1">
+      <c r="A472" t="s" s="4">
+        <v>940</v>
+      </c>
+      <c r="B472" t="s" s="5">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="473" ht="36" customHeight="1">
+      <c r="A473" t="s" s="4">
+        <v>942</v>
+      </c>
+      <c r="B473" t="s" s="5">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="474" ht="36" customHeight="1">
+      <c r="A474" t="s" s="4">
+        <v>944</v>
+      </c>
+      <c r="B474" t="s" s="5">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="475" ht="36" customHeight="1">
+      <c r="A475" t="s" s="4">
+        <v>946</v>
+      </c>
+      <c r="B475" t="s" s="5">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="476" ht="36" customHeight="1">
+      <c r="A476" t="s" s="4">
+        <v>948</v>
+      </c>
+      <c r="B476" t="s" s="5">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="477" ht="36" customHeight="1">
+      <c r="A477" t="s" s="4">
+        <v>950</v>
+      </c>
+      <c r="B477" t="s" s="5">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="478" ht="36" customHeight="1">
+      <c r="A478" t="s" s="4">
+        <v>952</v>
+      </c>
+      <c r="B478" t="s" s="5">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="479" ht="36" customHeight="1">
+      <c r="A479" t="s" s="4">
+        <v>954</v>
+      </c>
+      <c r="B479" t="s" s="5">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="480" ht="36" customHeight="1">
+      <c r="A480" t="s" s="4">
+        <v>956</v>
+      </c>
+      <c r="B480" t="s" s="5">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="481" ht="36" customHeight="1">
+      <c r="A481" t="s" s="4">
+        <v>958</v>
+      </c>
+      <c r="B481" t="s" s="5">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="482" ht="36" customHeight="1">
+      <c r="A482" t="s" s="4">
+        <v>960</v>
+      </c>
+      <c r="B482" t="s" s="5">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="483" ht="36" customHeight="1">
+      <c r="A483" t="s" s="4">
+        <v>962</v>
+      </c>
+      <c r="B483" t="s" s="5">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="484" ht="36" customHeight="1">
+      <c r="A484" t="s" s="4">
+        <v>964</v>
+      </c>
+      <c r="B484" t="s" s="5">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="485" ht="36" customHeight="1">
+      <c r="A485" t="s" s="4">
+        <v>966</v>
+      </c>
+      <c r="B485" t="s" s="5">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="486" ht="36" customHeight="1">
+      <c r="A486" t="s" s="4">
+        <v>968</v>
+      </c>
+      <c r="B486" t="s" s="5">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="487" ht="36" customHeight="1">
+      <c r="A487" t="s" s="4">
+        <v>970</v>
+      </c>
+      <c r="B487" t="s" s="5">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="488" ht="36" customHeight="1">
+      <c r="A488" t="s" s="4">
+        <v>972</v>
+      </c>
+      <c r="B488" t="s" s="5">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="489" ht="36" customHeight="1">
+      <c r="A489" t="s" s="4">
+        <v>974</v>
+      </c>
+      <c r="B489" t="s" s="5">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="490" ht="36" customHeight="1">
+      <c r="A490" t="s" s="4">
+        <v>976</v>
+      </c>
+      <c r="B490" t="s" s="5">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="491" ht="36" customHeight="1">
+      <c r="A491" t="s" s="4">
+        <v>978</v>
+      </c>
+      <c r="B491" t="s" s="5">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="492" ht="36" customHeight="1">
+      <c r="A492" t="s" s="4">
+        <v>980</v>
+      </c>
+      <c r="B492" t="s" s="5">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="493" ht="36" customHeight="1">
+      <c r="A493" t="s" s="4">
+        <v>982</v>
+      </c>
+      <c r="B493" t="s" s="5">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="494" ht="36" customHeight="1">
+      <c r="A494" t="s" s="4">
+        <v>984</v>
+      </c>
+      <c r="B494" t="s" s="5">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="495" ht="36" customHeight="1">
+      <c r="A495" t="s" s="4">
+        <v>986</v>
+      </c>
+      <c r="B495" t="s" s="5">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="496" ht="36" customHeight="1">
+      <c r="A496" t="s" s="4">
+        <v>988</v>
+      </c>
+      <c r="B496" t="s" s="5">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="497" ht="36" customHeight="1">
+      <c r="A497" t="s" s="4">
+        <v>990</v>
+      </c>
+      <c r="B497" t="s" s="5">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="498" ht="36" customHeight="1">
+      <c r="A498" t="s" s="4">
+        <v>992</v>
+      </c>
+      <c r="B498" t="s" s="5">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="499" ht="36" customHeight="1">
+      <c r="A499" t="s" s="4">
+        <v>994</v>
+      </c>
+      <c r="B499" t="s" s="5">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="500" ht="36" customHeight="1">
+      <c r="A500" t="s" s="4">
+        <v>996</v>
+      </c>
+      <c r="B500" t="s" s="5">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="501" ht="36" customHeight="1">
+      <c r="A501" t="s" s="4">
+        <v>998</v>
+      </c>
+      <c r="B501" t="s" s="5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="502" ht="36" customHeight="1">
+      <c r="A502" t="s" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B502" t="s" s="5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="503" ht="36" customHeight="1">
+      <c r="A503" t="s" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B503" t="s" s="5">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="504" ht="36" customHeight="1">
+      <c r="A504" t="s" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B504" t="s" s="5">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="505" ht="36" customHeight="1">
+      <c r="A505" t="s" s="4">
+        <v>1006</v>
+      </c>
+      <c r="B505" t="s" s="5">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="506" ht="36" customHeight="1">
+      <c r="A506" t="s" s="4">
+        <v>1008</v>
+      </c>
+      <c r="B506" t="s" s="5">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="507" ht="36" customHeight="1">
+      <c r="A507" t="s" s="4">
+        <v>1010</v>
+      </c>
+      <c r="B507" t="s" s="5">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="508" ht="36" customHeight="1">
+      <c r="A508" t="s" s="4">
+        <v>1012</v>
+      </c>
+      <c r="B508" t="s" s="5">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="509" ht="36" customHeight="1">
+      <c r="A509" t="s" s="4">
+        <v>1014</v>
+      </c>
+      <c r="B509" t="s" s="5">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="510" ht="36" customHeight="1">
+      <c r="A510" t="s" s="4">
+        <v>1016</v>
+      </c>
+      <c r="B510" t="s" s="5">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="511" ht="36" customHeight="1">
+      <c r="A511" t="s" s="4">
+        <v>1018</v>
+      </c>
+      <c r="B511" t="s" s="5">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="512" ht="36" customHeight="1">
+      <c r="A512" t="s" s="6">
+        <v>1020</v>
+      </c>
+      <c r="B512" t="s" s="7">
+        <v>1021</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
